--- a/issue-tracking-2020-feb.xlsx
+++ b/issue-tracking-2020-feb.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2-13" sheetId="1" r:id="rId1"/>
+    <sheet name="2020-2-21" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>序号</t>
   </si>
@@ -43,10 +44,28 @@
     <t>open</t>
   </si>
   <si>
-    <t>需要讨论</t>
+    <t>done</t>
+  </si>
+  <si>
+    <t>编辑去掉可选教师，页面变成申报教师，申报和可选始终一致</t>
   </si>
   <si>
     <t>”微调”的“确认”键无法操作</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>"教师信息管理"-》“教师个人”视图中，打通课程以单个条目显示，除课程代码以外，学位也要用“/”分隔打通课程信息，例如学位：“本科/法律硕士”</t>
+  </si>
+  <si>
+    <t>"教师信息管理"-》“教师个人”视图中，当提交过左侧导航栏“学科组”信息后，右侧课程列表视图不正确：打通课程没有按照用分隔符隔开的方式显示，班级没有用“/”分隔符，数据项“平行班级”实际显示的是”打通课程代码“，数据项“是否精品课程”显示的是”平行班级数“。</t>
+  </si>
+  <si>
+    <t>"教师信息管理"-》“教师个人”视图中，精品课程的显示：是精品课程显示”精品课程“，不是精品课程显示空（就是什么都没有，不要写none)，其它页面的精品课程也这样。</t>
+  </si>
+  <si>
+    <t>我是不是应该把原来数据库里写在”notes"里的精品课程信息搬到”excellent_course“这个数据项底下去？</t>
   </si>
 </sst>
 </file>
@@ -55,11 +74,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,12 +96,89 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -90,25 +186,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,29 +211,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -165,55 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,187 +240,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,12 +434,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -436,23 +461,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,15 +478,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,24 +499,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,148 +536,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,20 +1010,118 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="45.625" customWidth="1"/>
     <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="5" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="56.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="142.5" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43874</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43886</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43874</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43877</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1038,44 +1148,96 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="142.5" spans="1:7">
+    <row r="2" ht="42.75" spans="1:7">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2">
-        <v>43874</v>
+        <v>43882</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43886</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" ht="71.25" spans="1:7">
       <c r="A3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2">
-        <v>43874</v>
+        <v>43882</v>
       </c>
       <c r="F3" s="2">
-        <v>43877</v>
+        <v>43886</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="57" spans="1:7">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43886</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:7">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F5" s="2">
+        <v>43886</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/issue-tracking-2020-feb.xlsx
+++ b/issue-tracking-2020-feb.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2-13" sheetId="1" r:id="rId1"/>
     <sheet name="2020-2-21" sheetId="2" r:id="rId2"/>
+    <sheet name="2020-2-27" sheetId="3" r:id="rId3"/>
+    <sheet name="2020-2-28" sheetId="5" r:id="rId4"/>
+    <sheet name="2020-2-29" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>序号</t>
   </si>
@@ -41,31 +45,124 @@
     <t>现在的课程信息中的“可选教师”是否已经闲置？理论上已经不考虑教务员老师会更改“可选教师”列表，“可选教师”应该始终和“申报教师”列表一致。这样的话，所有前台会显示这个信息的地方应当同意显示“申报教师”，而不再显示“可选教师”，例如“课程信息管理”页面（同时可以考虑把“编辑课程信息”对话窗中的“可选教师”相关内容注释掉，先不删掉，就注释掉）。我注意到现在在“教务员”账号所见到的“教师信息管理”页面中，“申报信息”-&gt;“检查全部课程的教师申报情况”中,引用的信息应该是“申报教师”的信息，这个应该是对的。</t>
   </si>
   <si>
+    <t>verified</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>编辑去掉可选教师，页面变成申报教师，申报和可选始终一致</t>
+  </si>
+  <si>
+    <t>”微调”的“确认”键无法操作</t>
+  </si>
+  <si>
+    <t>"教师信息管理"-》“教师个人”视图中，打通课程以单个条目显示，除课程代码以外，学位也要用“/”分隔打通课程信息，例如学位：“本科/法律硕士”</t>
+  </si>
+  <si>
+    <t>"教师信息管理"-》“教师个人”视图中，当提交过左侧导航栏“学科组”信息后，右侧课程列表视图不正确：打通课程没有按照用分隔符隔开的方式显示，班级没有用“/”分隔符，数据项“平行班级”实际显示的是”打通课程代码“，数据项“是否精品课程”显示的是”平行班级数“。</t>
+  </si>
+  <si>
+    <t>re-open</t>
+  </si>
+  <si>
+    <t>"教师信息管理"-》“教师个人”视图中，当左侧导航栏提交过之后，显示的多个班级之间没有用“/”分隔符隔开。</t>
+  </si>
+  <si>
+    <t>"教师信息管理"-》“教师个人”视图中，精品课程的显示：是精品课程显示”精品课程“，不是精品课程显示空（就是什么都没有，不要写none)，其它页面的精品课程也这样。</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>我是不是应该把原来数据库里写在”notes"里的精品课程信息搬到”excellent_course“这个数据项底下去？</t>
+  </si>
+  <si>
+    <t>"教师信息管理"-》“教师个人”视图中，当左侧导航栏选中学科组中的“国际法学”并提交，系统报错。</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>编辑去掉可选教师，页面变成申报教师，申报和可选始终一致</t>
-  </si>
-  <si>
-    <t>”微调”的“确认”键无法操作</t>
-  </si>
-  <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>"教师信息管理"-》“教师个人”视图中，打通课程以单个条目显示，除课程代码以外，学位也要用“/”分隔打通课程信息，例如学位：“本科/法律硕士”</t>
-  </si>
-  <si>
-    <t>"教师信息管理"-》“教师个人”视图中，当提交过左侧导航栏“学科组”信息后，右侧课程列表视图不正确：打通课程没有按照用分隔符隔开的方式显示，班级没有用“/”分隔符，数据项“平行班级”实际显示的是”打通课程代码“，数据项“是否精品课程”显示的是”平行班级数“。</t>
-  </si>
-  <si>
-    <t>"教师信息管理"-》“教师个人”视图中，精品课程的显示：是精品课程显示”精品课程“，不是精品课程显示空（就是什么都没有，不要写none)，其它页面的精品课程也这样。</t>
-  </si>
-  <si>
-    <t>我是不是应该把原来数据库里写在”notes"里的精品课程信息搬到”excellent_course“这个数据项底下去？</t>
+    <t>remote</t>
+  </si>
+  <si>
+    <t>系统的日志中，所改动的表格的整行的数据，而不是改动的单元格的数据。这里有没有可能精简？我们可以讨论下，如果精简很麻烦，那可以先放着。</t>
+  </si>
+  <si>
+    <t>“课程信息管理”页面中要增加“备注"这一列，”备注“显示”notes“</t>
+  </si>
+  <si>
+    <t>“课程信息管理”页面中，”编辑课程信息“窗口中要增加编辑”备注“（即数据库”notes“）的功能，在老师确定授课老师分配之后，对虚拟老师账号，如”外籍教师“，”实务导师“，”待定导师“，”校外导师“此类，教务员老师会最后在备注中注明实际授课老师的姓名，做记录需要。</t>
+  </si>
+  <si>
+    <t>根据上一条，在”历史信息“页面中，要增加”状态“和”备注“两列，显示所有激活非激活的课程，以及显示课程“notes”</t>
+  </si>
+  <si>
+    <t>备注和激活</t>
+  </si>
+  <si>
+    <t>问题：我们现在对于打通课程代码，如果在“课程信息管理页面”中更新了一条课程的相关信息，和它关联的打通课程对应的信息是否会同步更新？如果没有实现这个，我们先记录着，可以之后完善，现在可以和老师说明要求他们手动同步。</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>我把LAWS130023的授课老师从“许多奇”改成“陈力”（未申报老师），并且批准微调之后，到“课程信息管理”页面查看，LAWS130023的授课老师显示“陈力”（应该显示“陈力（未申报）”）；而它的打通课程JM630041的授课老师显示的是“陈力（未申报）”（正确）。</t>
+  </si>
+  <si>
+    <t>关于日志，当前只记录course_info的改动，是否可以增加更多的日志，包括：course_adjust_info，teacher_info，users_user</t>
+  </si>
+  <si>
+    <t>“教师信息管理”页面中-》“教务员”-》“微调信息”中，微调求情的状态简化为“已批准”，“已驳回”，“等待审批”</t>
+  </si>
+  <si>
+    <t>已批准，已驳回，等待审批</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">关于微调发生过之后，授课老师标注“（已申报）”/“（未申报）”的统一：
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凡是发生过微调的课程，授课老师一律注明“（已申报）“/”（未申报）“：包括在”课程信息管理“页面中的显示（打通课程也统一）；包括在”教师信息管理“页面中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"教务员”-》“微调信息”页面中的显示，如果同一课程发生多次（包括第二次及以上）微调，在"微调信息“中，”原授课教师“及”微调教师“都显示"(已申报）”/“（未申报）”（如果是第一次发生微调，只有“微调教师”需要显示“（已申报）”/“（未申报）”）。
+2.排课结束后，点击“锁定”之后，课程信息会复制进历史信息表，发生过微调的课程也携带“（已申报）”/“（未申报）”标识进入历史信息表，这样对历史信息教务员老师可以甄别哪些课程当时是做过人为调整的。</t>
+    </r>
+  </si>
+  <si>
+    <t>如果有”等待审批“的微调还未审批完成，”分配授课教师“步骤四不可以点击”确认完成这一步“，并给出提示”还有微调请求待审批，请完成所有审批。“</t>
+  </si>
+  <si>
+    <t>”
+2020-02-28 12:29:11 - 主管老师22222 - [CourseInfo]course_id:laws130023 teacher_final_pick: 陈力
+2020-02-28 12:29:11 - 主管老师22222 - course_relate:JM630041 teacher_final_pick: 陈力(未申报)
+2020-02-29 14:22:53 - 主管老师22222 - [CourseInfo]course_id:927.002.1 teacher_final_pick: 朱丹,张乃根
+2020-02-29 14:22:53 - 主管老师22222 - course_relate:123 teacher_final_pick: 朱丹(已申报),张乃根(已申报)
+2020-02-29 14:23:01 - 主管老师22222 - [CourseInfo]course_id:LAW830032 teacher_final_pick: 章武生
+“
+发现这样一段日志，判断是主管老师审批微调之后，在course_info中更新teacher_final_pick时系统做的日志。有几个点：
+1.在更新打通课程的地方没有记录是对哪张表的改动（见第2，4条日志）；
+2.课程代码为927.002.1的打通课程代码为”123“，实际不存在，这种情况实际代码会如何处理？</t>
   </si>
 </sst>
 </file>
@@ -73,12 +170,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,7 +185,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,6 +220,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -117,8 +303,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,14 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -148,36 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,53 +334,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,55 +344,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,127 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,15 +562,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -482,6 +583,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -499,11 +609,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,9 +633,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,144 +661,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,11 +1128,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1060,13 +1181,13 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>43874</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>43886</v>
       </c>
       <c r="G2" t="s">
@@ -1086,17 +1207,17 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43874</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43877</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>43874</v>
-      </c>
-      <c r="F3" s="2">
-        <v>43877</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1107,14 +1228,158 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="50.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="54.375" customWidth="1"/>
+    <col min="8" max="8" width="45.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="42.75" spans="1:7">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43882</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43886</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="71.25" spans="1:7">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43882</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43886</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="42.75" spans="1:7">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43882</v>
+      </c>
+      <c r="F4" s="3">
+        <v>43886</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:7">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43882</v>
+      </c>
+      <c r="F5" s="3">
+        <v>43886</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -1148,99 +1413,336 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="42.75" spans="1:7">
+    <row r="2" ht="28.5" spans="1:7">
       <c r="A2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43888</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="42.75" spans="1:6">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43888</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" ht="28.5" spans="1:6">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43888</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" ht="71.25" spans="1:6">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43888</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" ht="42.75" spans="1:6">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43888</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="71.25" spans="1:5">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="3" ht="85.5" spans="1:5">
+      <c r="A3">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>43882</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43886</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="71.25" spans="1:7">
-      <c r="A3">
-        <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="42.75" spans="1:5">
+      <c r="A2">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>43882</v>
-      </c>
-      <c r="F3" s="2">
-        <v>43886</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="57" spans="1:7">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:6">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="199.5" spans="1:5">
       <c r="A4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43882</v>
-      </c>
-      <c r="F4" s="2">
-        <v>43886</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="28.5" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="5" ht="42.75" spans="1:5">
       <c r="A5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>43882</v>
-      </c>
-      <c r="F5" s="2">
-        <v>43886</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="6" ht="342" spans="1:5">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43890</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/issue-tracking-2020-feb.xlsx
+++ b/issue-tracking-2020-feb.xlsx
@@ -12,14 +12,14 @@
     <sheet name="2020-2-27" sheetId="3" r:id="rId3"/>
     <sheet name="2020-2-28" sheetId="5" r:id="rId4"/>
     <sheet name="2020-2-29" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="2020-3-1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>序号</t>
   </si>
@@ -63,7 +63,7 @@
     <t>"教师信息管理"-》“教师个人”视图中，当提交过左侧导航栏“学科组”信息后，右侧课程列表视图不正确：打通课程没有按照用分隔符隔开的方式显示，班级没有用“/”分隔符，数据项“平行班级”实际显示的是”打通课程代码“，数据项“是否精品课程”显示的是”平行班级数“。</t>
   </si>
   <si>
-    <t>re-open</t>
+    <t>done</t>
   </si>
   <si>
     <t>"教师信息管理"-》“教师个人”视图中，当左侧导航栏提交过之后，显示的多个班级之间没有用“/”分隔符隔开。</t>
@@ -72,24 +72,21 @@
     <t>"教师信息管理"-》“教师个人”视图中，精品课程的显示：是精品课程显示”精品课程“，不是精品课程显示空（就是什么都没有，不要写none)，其它页面的精品课程也这样。</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>我是不是应该把原来数据库里写在”notes"里的精品课程信息搬到”excellent_course“这个数据项底下去？</t>
   </si>
   <si>
     <t>"教师信息管理"-》“教师个人”视图中，当左侧导航栏选中学科组中的“国际法学”并提交，系统报错。</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>remote</t>
+    <t>course_relate =123</t>
   </si>
   <si>
     <t>系统的日志中，所改动的表格的整行的数据，而不是改动的单元格的数据。这里有没有可能精简？我们可以讨论下，如果精简很麻烦，那可以先放着。</t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>“课程信息管理”页面中要增加“备注"这一列，”备注“显示”notes“</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>根据上一条，在”历史信息“页面中，要增加”状态“和”备注“两列，显示所有激活非激活的课程，以及显示课程“notes”</t>
   </si>
   <si>
-    <t>备注和激活</t>
-  </si>
-  <si>
     <t>问题：我们现在对于打通课程代码，如果在“课程信息管理页面”中更新了一条课程的相关信息，和它关联的打通课程对应的信息是否会同步更新？如果没有实现这个，我们先记录着，可以之后完善，现在可以和老师说明要求他们手动同步。</t>
   </si>
   <si>
@@ -109,15 +103,6 @@
   </si>
   <si>
     <t>我把LAWS130023的授课老师从“许多奇”改成“陈力”（未申报老师），并且批准微调之后，到“课程信息管理”页面查看，LAWS130023的授课老师显示“陈力”（应该显示“陈力（未申报）”）；而它的打通课程JM630041的授课老师显示的是“陈力（未申报）”（正确）。</t>
-  </si>
-  <si>
-    <t>关于日志，当前只记录course_info的改动，是否可以增加更多的日志，包括：course_adjust_info，teacher_info，users_user</t>
-  </si>
-  <si>
-    <t>“教师信息管理”页面中-》“教务员”-》“微调信息”中，微调求情的状态简化为“已批准”，“已驳回”，“等待审批”</t>
-  </si>
-  <si>
-    <t>已批准，已驳回，等待审批</t>
   </si>
   <si>
     <r>
@@ -127,16 +112,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">关于微调发生过之后，授课老师标注“（已申报）”/“（未申报）”的统一：
-1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>凡是发生过微调的课程，授课老师一律注明“（已申报）“/”（未申报）“：包括在”课程信息管理“页面中的显示（打通课程也统一）；包括在”教师信息管理“页面中</t>
+      <t>related</t>
     </r>
     <r>
       <rPr>
@@ -145,15 +121,96 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>"教务员”-》“微调信息”页面中的显示，如果同一课程发生多次（包括第二次及以上）微调，在"微调信息“中，”原授课教师“及”微调教师“都显示"(已申报）”/“（未申报）”（如果是第一次发生微调，只有“微调教师”需要显示“（已申报）”/“（未申报）”）。
-2.排课结束后，点击“锁定”之后，课程信息会复制进历史信息表，发生过微调的课程也携带“（已申报）”/“（未申报）”标识进入历史信息表，这样对历史信息教务员老师可以甄别哪些课程当时是做过人为调整的。</t>
+      <t xml:space="preserve"> to #16</t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于日志，当前只记录course_info的改动，是否可以增加更多的日志，包括：course_adjust_info，teacher_info</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，users_user</t>
+    </r>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>“教师信息管理”页面中-》“教务员”-》“微调信息”中，微调求情的状态简化为“已批准”，“已驳回”，“等待审批”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于微调发生过之后，授课老师标注“（已申报）”/“（未申报）”的统一：
+1. “课程信息管理”页面中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授课老师改成未申报的老师的，一律注明”（未申报）“
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”教师信息管理“-》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"教务员”-》“微调信息”页面中：“微调教师”要求一律显示“（已申报）”/“（未申报）”标识（现有代码已经实现），”原授课教师“如果是未申报教师的要求显示“（未申报）”标识。
+2.“历史信息”页面，授课教师如果是未申报教师的要求显示“（未申报）”标识。</t>
+    </r>
+  </si>
+  <si>
     <t>如果有”等待审批“的微调还未审批完成，”分配授课教师“步骤四不可以点击”确认完成这一步“，并给出提示”还有微调请求待审批，请完成所有审批。“</t>
   </si>
   <si>
-    <t>”
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">”
 2020-02-28 12:29:11 - 主管老师22222 - [CourseInfo]course_id:laws130023 teacher_final_pick: 陈力
 2020-02-28 12:29:11 - 主管老师22222 - course_relate:JM630041 teacher_final_pick: 陈力(未申报)
 2020-02-29 14:22:53 - 主管老师22222 - [CourseInfo]course_id:927.002.1 teacher_final_pick: 朱丹,张乃根
@@ -162,7 +219,24 @@
 “
 发现这样一段日志，判断是主管老师审批微调之后，在course_info中更新teacher_final_pick时系统做的日志。有几个点：
 1.在更新打通课程的地方没有记录是对哪张表的改动（见第2，4条日志）；
-2.课程代码为927.002.1的打通课程代码为”123“，实际不存在，这种情况实际代码会如何处理？</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.课程代码为927.002.1的打通课程代码为”123“，实际不存在，这种情况实际代码会如何处理？</t>
+    </r>
+  </si>
+  <si>
+    <t>“分配授课教师”页面-》步骤五-》“锁定排课过程”按键无效。</t>
+  </si>
+  <si>
+    <t>“分配授课教师”页面-》步骤五-》“锁定排课过程”按键建议改名为"锁定排课结果“</t>
   </si>
 </sst>
 </file>
@@ -170,12 +244,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +266,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -205,6 +292,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -214,12 +325,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -227,9 +346,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,46 +376,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,39 +406,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,7 +439,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,181 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,26 +633,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +653,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,37 +716,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,10 +738,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,153 +750,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1181,13 +1273,13 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>43874</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>43886</v>
       </c>
       <c r="G2" t="s">
@@ -1207,13 +1299,13 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>43874</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>43877</v>
       </c>
       <c r="G3" t="s">
@@ -1234,7 +1326,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1281,16 +1373,16 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>43882</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>43886</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1301,19 +1393,19 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>43882</v>
       </c>
-      <c r="F3" s="3">
-        <v>43886</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1327,17 +1419,17 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>43882</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>43886</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:7">
@@ -1348,19 +1440,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>43882</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>43886</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1468,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1384,10 +1476,10 @@
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1420,19 +1512,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43888</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3">
-        <v>43888</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2"/>
     </row>
     <row r="3" ht="42.75" spans="1:6">
       <c r="A3">
@@ -1441,16 +1535,16 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3">
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
         <v>43888</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" ht="28.5" spans="1:6">
       <c r="A4">
@@ -1459,16 +1553,18 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
         <v>43888</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2">
+        <v>43892</v>
+      </c>
     </row>
     <row r="5" ht="71.25" spans="1:6">
       <c r="A5">
@@ -1477,16 +1573,18 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2">
         <v>43888</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2">
+        <v>43892</v>
+      </c>
     </row>
     <row r="6" ht="42.75" spans="1:6">
       <c r="A6">
@@ -1495,17 +1593,17 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
         <v>43888</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
+      <c r="F6" s="2">
+        <v>43892</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +1619,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1566,16 +1664,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2">
         <v>43889</v>
       </c>
     </row>
-    <row r="3" ht="85.5" spans="1:5">
+    <row r="3" ht="85.5" spans="1:7">
       <c r="A3">
         <v>13</v>
       </c>
@@ -1583,13 +1681,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
         <v>43889</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +1719,7 @@
     <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.625" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1649,13 +1753,13 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>43890</v>
       </c>
     </row>
@@ -1666,29 +1770,37 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" ht="199.5" spans="1:5">
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43870</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="4" ht="142.5" spans="1:6">
       <c r="A4">
         <v>16</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
         <v>43890</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43892</v>
       </c>
     </row>
     <row r="5" ht="42.75" spans="1:5">
@@ -1698,13 +1810,13 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2">
         <v>43890</v>
       </c>
     </row>
@@ -1715,13 +1827,13 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
         <v>43890</v>
       </c>
     </row>
@@ -1735,15 +1847,83 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5" spans="1:5">
+      <c r="A2">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:5">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43891</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/issue-tracking-2020-feb.xlsx
+++ b/issue-tracking-2020-feb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2-13" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     </r>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>“教师信息管理”页面中-》“教务员”-》“微调信息”中，微调求情的状态简化为“已批准”，“已驳回”，“等待审批”</t>
   </si>
   <si>
@@ -166,6 +163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>授课老师改成未申报的老师的，一律注明”（未申报）“
@@ -184,6 +182,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>”教师信息管理“-》</t>
@@ -236,6 +235,9 @@
     <t>“分配授课教师”页面-》步骤五-》“锁定排课过程”按键无效。</t>
   </si>
   <si>
+    <t>需要等一会。没有做等待提升</t>
+  </si>
+  <si>
     <t>“分配授课教师”页面-》步骤五-》“锁定排课过程”按键建议改名为"锁定排课结果“</t>
   </si>
 </sst>
@@ -244,12 +246,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,8 +261,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -268,35 +299,83 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,117 +396,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -439,187 +445,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,54 +636,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -716,6 +674,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -738,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,133 +756,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -890,16 +896,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1326,7 +1332,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1619,7 +1625,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1708,8 +1714,8 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1746,7 +1752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="42.75" spans="1:5">
+    <row r="2" ht="42.75" spans="1:6">
       <c r="A2">
         <v>14</v>
       </c>
@@ -1757,10 +1763,13 @@
         <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2">
         <v>43890</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43893</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
@@ -1771,7 +1780,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -1783,7 +1792,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="4" ht="142.5" spans="1:6">
+    <row r="4" ht="141.75" spans="1:6">
       <c r="A4">
         <v>16</v>
       </c>
@@ -1791,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -1803,7 +1812,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="5" ht="42.75" spans="1:5">
+    <row r="5" ht="42.75" spans="1:6">
       <c r="A5">
         <v>17</v>
       </c>
@@ -1811,16 +1820,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>43890</v>
       </c>
-    </row>
-    <row r="6" ht="342" spans="1:5">
+      <c r="F5" s="2">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="6" ht="342" spans="1:6">
       <c r="A6">
         <v>18</v>
       </c>
@@ -1828,13 +1840,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
         <v>43890</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43893</v>
       </c>
     </row>
   </sheetData>
@@ -1849,8 +1864,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1887,7 +1902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:5">
+    <row r="2" ht="28.5" spans="1:7">
       <c r="A2">
         <v>19</v>
       </c>
@@ -1895,16 +1910,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2">
         <v>43891</v>
       </c>
-    </row>
-    <row r="3" ht="28.5" spans="1:5">
+      <c r="F2" s="2">
+        <v>43893</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:6">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1915,10 +1936,13 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>43891</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43893</v>
       </c>
     </row>
   </sheetData>

--- a/issue-tracking-2020-feb.xlsx
+++ b/issue-tracking-2020-feb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2-13" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="2020-2-28" sheetId="5" r:id="rId4"/>
     <sheet name="2020-2-29" sheetId="6" r:id="rId5"/>
     <sheet name="2020-3-1" sheetId="7" r:id="rId6"/>
+    <sheet name="2020-3-4" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>序号</t>
   </si>
@@ -63,13 +65,13 @@
     <t>"教师信息管理"-》“教师个人”视图中，当提交过左侧导航栏“学科组”信息后，右侧课程列表视图不正确：打通课程没有按照用分隔符隔开的方式显示，班级没有用“/”分隔符，数据项“平行班级”实际显示的是”打通课程代码“，数据项“是否精品课程”显示的是”平行班级数“。</t>
   </si>
   <si>
+    <t>"教师信息管理"-》“教师个人”视图中，当左侧导航栏提交过之后，显示的多个班级之间没有用“/”分隔符隔开。</t>
+  </si>
+  <si>
+    <t>"教师信息管理"-》“教师个人”视图中，精品课程的显示：是精品课程显示”精品课程“，不是精品课程显示空（就是什么都没有，不要写none)，其它页面的精品课程也这样。</t>
+  </si>
+  <si>
     <t>done</t>
-  </si>
-  <si>
-    <t>"教师信息管理"-》“教师个人”视图中，当左侧导航栏提交过之后，显示的多个班级之间没有用“/”分隔符隔开。</t>
-  </si>
-  <si>
-    <t>"教师信息管理"-》“教师个人”视图中，精品课程的显示：是精品课程显示”精品课程“，不是精品课程显示空（就是什么都没有，不要写none)，其它页面的精品课程也这样。</t>
   </si>
   <si>
     <t>我是不是应该把原来数据库里写在”notes"里的精品课程信息搬到”excellent_course“这个数据项底下去？</t>
@@ -240,6 +242,36 @@
   <si>
     <t>“分配授课教师”页面-》步骤五-》“锁定排课过程”按键建议改名为"锁定排课结果“</t>
   </si>
+  <si>
+    <t>“历史信息”页面中，“平行班级”为空，全部显示的是“none"。</t>
+  </si>
+  <si>
+    <t>锁定的时候平行班级拷贝有误/重新锁定</t>
+  </si>
+  <si>
+    <t>“历史信息”页面中，打通课程的“学位”没有显示另一个学位的信息，要用“/”隔开。</t>
+  </si>
+  <si>
+    <t>"历史信息“的导出文件中，”平行班级“内容有误，现在放的是打通课程代码。</t>
+  </si>
+  <si>
+    <t>导出有错误</t>
+  </si>
+  <si>
+    <t>"历史信息”的导出文件中，为什么有”未激活“和”状态”两个内容重复的列？如果要去掉一个保留一个的话，建议保留”状态“（内容是非激活），这样老师比较容易填写内容，不然他们会总是要想0是非激活还是1是非激活。</t>
+  </si>
+  <si>
+    <t>留状态，但是导入的时候是不是就是非激活？</t>
+  </si>
+  <si>
+    <t>修改密码的入口在哪里？</t>
+  </si>
+  <si>
+    <t>在branch，我可以先用我的qq邮箱</t>
+  </si>
+  <si>
+    <t>”教师信息管理“-》”教务员“-》”微调信息“页面中的按钮不见了，无法批准/驳回微调申请</t>
+  </si>
 </sst>
 </file>
 
@@ -247,11 +279,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +293,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -280,9 +319,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,52 +342,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,19 +363,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,22 +395,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,19 +484,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,163 +592,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,17 +675,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -670,6 +698,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,18 +752,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,7 +795,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,134 +804,140 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -902,10 +947,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1279,13 +1324,13 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>43874</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>43886</v>
       </c>
       <c r="G2" t="s">
@@ -1305,13 +1350,13 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>43874</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>43877</v>
       </c>
       <c r="G3" t="s">
@@ -1327,12 +1372,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1379,16 +1424,16 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>43882</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>43886</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1399,20 +1444,20 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43882</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43892</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="2">
-        <v>43882</v>
-      </c>
-      <c r="F3" s="2">
-        <v>43892</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" ht="42.75" spans="1:7">
@@ -1423,19 +1468,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43882</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43886</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43882</v>
-      </c>
-      <c r="F4" s="2">
-        <v>43886</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:7">
@@ -1448,17 +1493,17 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>43882</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>43886</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1519,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1518,19 +1563,19 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4">
         <v>43888</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>43892</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1541,16 +1586,16 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>43888</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" ht="28.5" spans="1:6">
       <c r="A4">
@@ -1559,16 +1604,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4">
         <v>43888</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>43892</v>
       </c>
     </row>
@@ -1579,16 +1624,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
         <v>43888</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>43892</v>
       </c>
     </row>
@@ -1599,16 +1644,16 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4">
         <v>43888</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>43892</v>
       </c>
     </row>
@@ -1672,10 +1717,10 @@
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>43889</v>
       </c>
     </row>
@@ -1690,15 +1735,15 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4">
         <v>43889</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>43892</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1759,16 +1804,16 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4">
         <v>43890</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>43893</v>
       </c>
     </row>
@@ -1779,16 +1824,16 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4">
         <v>43870</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>43892</v>
       </c>
     </row>
@@ -1799,16 +1844,16 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
         <v>43890</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>43892</v>
       </c>
     </row>
@@ -1819,16 +1864,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
         <v>43890</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>43893</v>
       </c>
     </row>
@@ -1839,16 +1884,16 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4">
         <v>43890</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>43893</v>
       </c>
     </row>
@@ -1864,7 +1909,7 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1913,12 +1958,12 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4">
         <v>43891</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>43893</v>
       </c>
       <c r="G2" t="s">
@@ -1936,12 +1981,12 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4">
         <v>43891</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>43893</v>
       </c>
     </row>
@@ -1950,4 +1995,199 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="32.125" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5" spans="1:7">
+      <c r="A2">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43894</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43895</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:6">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43894</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:7">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43894</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43895</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" ht="71.25" spans="1:7">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43894</v>
+      </c>
+      <c r="F5" s="4">
+        <v>43895</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43894</v>
+      </c>
+      <c r="F6" s="4">
+        <v>43895</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:5">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43894</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/issue-tracking-2020-feb.xlsx
+++ b/issue-tracking-2020-feb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2-13" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,16 @@
     <sheet name="2020-2-29" sheetId="6" r:id="rId5"/>
     <sheet name="2020-3-1" sheetId="7" r:id="rId6"/>
     <sheet name="2020-3-4" sheetId="9" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="2020-3-6" sheetId="10" r:id="rId8"/>
+    <sheet name="2020-3-7" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>序号</t>
   </si>
@@ -201,6 +203,12 @@
     </r>
   </si>
   <si>
+    <t>re-open</t>
+  </si>
+  <si>
+    <t>link to #29</t>
+  </si>
+  <si>
     <t>如果有”等待审批“的微调还未审批完成，”分配授课教师“步骤四不可以点击”确认完成这一步“，并给出提示”还有微调请求待审批，请完成所有审批。“</t>
   </si>
   <si>
@@ -261,7 +269,8 @@
     <t>"历史信息”的导出文件中，为什么有”未激活“和”状态”两个内容重复的列？如果要去掉一个保留一个的话，建议保留”状态“（内容是非激活），这样老师比较容易填写内容，不然他们会总是要想0是非激活还是1是非激活。</t>
   </si>
   <si>
-    <t>留状态，但是导入的时候是不是就是非激活？</t>
+    <t>留状态，但是导入的时候是不是就是非激活？
+回答：是的。想问一下后台数据库里用“1”还是“非激活”，还有编辑课程信息的相应位置填0/1还是“激活”/“非激活”？几处统一一下吧。</t>
   </si>
   <si>
     <t>修改密码的入口在哪里？</t>
@@ -271,6 +280,66 @@
   </si>
   <si>
     <t>”教师信息管理“-》”教务员“-》”微调信息“页面中的按钮不见了，无法批准/驳回微调申请</t>
+  </si>
+  <si>
+    <t>是我搞错了：（</t>
+  </si>
+  <si>
+    <t>我们现在锁定排课结果的时候，会把微调说明合并进课程的notes里面一起进到历史信息的“notes”里，对吗?</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>会的</t>
+  </si>
+  <si>
+    <t>点击“课程信息管理”页面上“编辑课程信息”按键，改动“备注”（notes）的内容之后，查看log里关于course_info的记录，发现这里course_info没有记录notes这个字段。需要查看下，除了notes，还有没有其他的漏了。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给打通课程做授课教师微调，</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果微调程未申报的老师，在微调批准之后，在后台数据库中，两个打通课程的teacher_final_pick，一个是带“（未申报）”标记的，一个不带。前台“课程信息管理”页面的显示也有问题。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果发起的微调课程是本科课程，那么微调比准后，此本科课程的授课老师是正常的，打通的硕士课程的授课老师会一起修改，但是在后台数据库中授课老师的名字后面会加上”（未申报）"/"(已申报）“标识，这样还会导致”课程信息管理“页面总显示的此硕士课程的授课老师始终会额外加上”（未申报）“后缀。如果发起的微调课程是硕士课程，那么微调批准后，次硕士课程对应的授课老师是正常的，打通的本科课程的授课老师缺始终不会改动。此出考虑硕士课程和本科课程的区别，可能和他们在后台数据库中的相对位置有关系。</t>
+    </r>
+  </si>
+  <si>
+    <t>能不能记录最后一次“锁定排课结果”的时间，记在日志里也可以</t>
+  </si>
+  <si>
+    <t>主管老师批准或者驳回微调申请时，日志里面没法看出来每条批准或者驳回的记录是针对哪一个申请的。是否可以记录？</t>
+  </si>
+  <si>
+    <t>“课程信息管理”页面点击左侧导航栏“提交”按钮之后，会弹出窗口显示“DataTables warning: table id=table_course_manage - Requested unknown parameter '19' for row 0, column 19. For more information about this error, please see http://datatables.net/tn/4”，点击窗口“确定”键后，程序可以正常运行。</t>
+  </si>
+  <si>
+    <t>“课程信息管理”页面中”编辑课程信息“弹窗中：是否精品课程的内容应该是下拉选项”精品课程“和”非精品课程“，状态的内容应该是下拉选项”激活“和”非激活“，可以防止老师乱填，影响我们的程序逻辑判断。</t>
+  </si>
+  <si>
+    <t>课程LAWS130074无法正常微调授课教师</t>
   </si>
 </sst>
 </file>
@@ -279,11 +348,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +381,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -320,7 +404,107 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,132 +525,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -475,7 +552,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +561,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -496,175 +735,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,6 +764,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,71 +864,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -783,10 +872,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,137 +884,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,10 +1030,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1282,16 +1389,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="5.10833333333333" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="56.625" customWidth="1"/>
+    <col min="3" max="3" width="45.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
+    <col min="5" max="6" width="9.88333333333333" customWidth="1"/>
+    <col min="7" max="7" width="9.21666666666667" customWidth="1"/>
+    <col min="8" max="8" width="56.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="28.5" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1431,7 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4">
@@ -1350,7 +1457,7 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4">
@@ -1364,6 +1471,22 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1382,13 +1505,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="50.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="5.21666666666667" customWidth="1"/>
+    <col min="2" max="2" width="7.10833333333333" customWidth="1"/>
+    <col min="3" max="3" width="50.2166666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
     <col min="5" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="54.375" customWidth="1"/>
-    <col min="8" max="8" width="45.125" customWidth="1"/>
+    <col min="7" max="7" width="54.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="45.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1424,7 +1547,7 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4">
@@ -1433,7 +1556,7 @@
       <c r="F2" s="4">
         <v>43886</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1444,10 +1567,10 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4">
@@ -1456,7 +1579,7 @@
       <c r="F3" s="4">
         <v>43892</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1470,7 +1593,7 @@
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4">
@@ -1493,7 +1616,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="4">
@@ -1515,22 +1638,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="5.10833333333333" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="45.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="9.88333333333333" customWidth="1"/>
+    <col min="6" max="6" width="8.88333333333333" customWidth="1"/>
+    <col min="7" max="7" width="17.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1563,7 +1688,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1575,7 +1700,7 @@
       <c r="F2" s="4">
         <v>43892</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1586,10 +1711,10 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="4">
@@ -1604,7 +1729,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1624,7 +1749,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1644,11 +1769,11 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="E6" s="4">
         <v>43888</v>
@@ -1666,25 +1791,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="5.10833333333333" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="45.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="9.88333333333333" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="9.21666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="28.5" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1844,7 @@
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="4">
@@ -1735,7 +1862,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4">
         <v>43889</v>
@@ -1743,7 +1870,7 @@
       <c r="F3" s="4">
         <v>43892</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1756,22 +1883,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="3.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="2.55833333333333" customWidth="1"/>
+    <col min="3" max="3" width="49.1083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.55833333333333" customWidth="1"/>
+    <col min="5" max="5" width="10.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="9.10833333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1804,11 +1933,11 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="4">
         <v>43890</v>
@@ -1824,11 +1953,11 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="4">
         <v>43870</v>
@@ -1837,24 +1966,27 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="4" ht="141.75" spans="1:6">
-      <c r="A4">
+    <row r="4" s="5" customFormat="1" ht="141.75" spans="1:7">
+      <c r="A4" s="5">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="8">
         <v>43890</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="8">
         <v>43892</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="42.75" spans="1:6">
@@ -1864,11 +1996,11 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E5" s="4">
         <v>43890</v>
@@ -1877,18 +2009,18 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="6" ht="342" spans="1:6">
+    <row r="6" ht="299.25" spans="1:6">
       <c r="A6">
         <v>18</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
+      <c r="C6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E6" s="4">
         <v>43890</v>
@@ -1906,25 +2038,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="5.10833333333333" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="45.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="9.88333333333333" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="9.21666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="28.5" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1955,10 +2089,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="4">
         <v>43891</v>
@@ -1967,7 +2101,7 @@
         <v>43893</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
@@ -1978,10 +2112,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="4">
         <v>43891</v>
@@ -1999,22 +2133,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="5.10833333333333" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="5" width="8.875" customWidth="1"/>
-    <col min="6" max="6" width="32.125" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="3" max="3" width="45.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="8.88333333333333" customWidth="1"/>
+    <col min="6" max="6" width="32.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="42.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2048,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>16</v>
@@ -2060,7 +2196,7 @@
         <v>43895</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
@@ -2071,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>16</v>
@@ -2091,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
@@ -2103,30 +2239,30 @@
         <v>43895</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" ht="71.25" spans="1:7">
-      <c r="A5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="71.25" spans="1:7">
+      <c r="A5" s="5">
         <v>24</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <v>43894</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="8">
         <v>43895</v>
       </c>
-      <c r="G5" t="s">
-        <v>43</v>
+      <c r="G5" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2137,7 +2273,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
@@ -2149,10 +2285,10 @@
         <v>43895</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:7">
       <c r="A7">
         <v>26</v>
       </c>
@@ -2160,13 +2296,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4">
         <v>43894</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2179,15 +2318,277 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.21666666666667" customWidth="1"/>
+    <col min="2" max="2" width="7.10833333333333" customWidth="1"/>
+    <col min="3" max="3" width="50.4416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44166666666667" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="10.1083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5" spans="1:7">
+      <c r="A2">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43896</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43898</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" ht="57" spans="1:6">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43896</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="185.25" spans="1:6">
+      <c r="A4" s="5">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8">
+        <v>43896</v>
+      </c>
+      <c r="F4" s="8">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.21666666666667" customWidth="1"/>
+    <col min="2" max="2" width="7.10833333333333" customWidth="1"/>
+    <col min="3" max="3" width="50.4416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44166666666667" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="10.1083333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5" spans="1:6">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43897</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" spans="1:6">
+      <c r="A3">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43897</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="4" ht="85.5" spans="1:6">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43897</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="5" ht="57" spans="1:6">
+      <c r="A5">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43897</v>
+      </c>
+      <c r="F5" s="4">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43897</v>
+      </c>
+      <c r="F6" s="4">
+        <v>43898</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/issue-tracking-2020-feb.xlsx
+++ b/issue-tracking-2020-feb.xlsx
@@ -4,26 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="3" activeTab="8"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2-13" sheetId="1" r:id="rId1"/>
     <sheet name="2020-2-21" sheetId="2" r:id="rId2"/>
     <sheet name="2020-2-27" sheetId="3" r:id="rId3"/>
-    <sheet name="2020-2-28" sheetId="5" r:id="rId4"/>
-    <sheet name="2020-2-29" sheetId="6" r:id="rId5"/>
-    <sheet name="2020-3-1" sheetId="7" r:id="rId6"/>
-    <sheet name="2020-3-4" sheetId="9" r:id="rId7"/>
-    <sheet name="2020-3-6" sheetId="10" r:id="rId8"/>
-    <sheet name="2020-3-7" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId10"/>
+    <sheet name="2020-3-1" sheetId="7" r:id="rId4"/>
+    <sheet name="2020-3-6" sheetId="10" r:id="rId5"/>
+    <sheet name="2020-2-29" sheetId="6" r:id="rId6"/>
+    <sheet name="2020-3-7" sheetId="11" r:id="rId7"/>
+    <sheet name="2020-3-4" sheetId="9" r:id="rId8"/>
+    <sheet name="2020-2-28" sheetId="5" r:id="rId9"/>
+    <sheet name="2020-3-8" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2020-3-8'!$A$1:$G$21</definedName>
+  </definedNames>
   <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>序号</t>
   </si>
@@ -100,13 +104,22 @@
     <t>根据上一条，在”历史信息“页面中，要增加”状态“和”备注“两列，显示所有激活非激活的课程，以及显示课程“notes”</t>
   </si>
   <si>
-    <t>问题：我们现在对于打通课程代码，如果在“课程信息管理页面”中更新了一条课程的相关信息，和它关联的打通课程对应的信息是否会同步更新？如果没有实现这个，我们先记录着，可以之后完善，现在可以和老师说明要求他们手动同步。</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>我把LAWS130023的授课老师从“许多奇”改成“陈力”（未申报老师），并且批准微调之后，到“课程信息管理”页面查看，LAWS130023的授课老师显示“陈力”（应该显示“陈力（未申报）”）；而它的打通课程JM630041的授课老师显示的是“陈力（未申报）”（正确）。</t>
+    <t>“分配授课教师”页面-》步骤五-》“锁定排课过程”按键无效。</t>
+  </si>
+  <si>
+    <t>需要等一会。没有做等待提升</t>
+  </si>
+  <si>
+    <t>“分配授课教师”页面-》步骤五-》“锁定排课过程”按键建议改名为"锁定排课结果“</t>
+  </si>
+  <si>
+    <t>我们现在锁定排课结果的时候，会把微调说明合并进课程的notes里面一起进到历史信息的“notes”里，对吗?</t>
+  </si>
+  <si>
+    <t>会的</t>
+  </si>
+  <si>
+    <t>点击“课程信息管理”页面上“编辑课程信息”按键，改动“备注”（notes）的内容之后，查看log里关于course_info的记录，发现这里course_info没有记录notes这个字段。需要查看下，除了notes，还有没有其他的漏了。</t>
   </si>
   <si>
     <r>
@@ -116,7 +129,17 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>related</t>
+      <t>给打通课程做授课教师微调，</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果微调程未申报的老师，在微调批准之后，在后台数据库中，两个打通课程的teacher_final_pick，一个是带“（未申报）”标记的，一个不带。前台“课程信息管理”页面的显示也有问题。</t>
     </r>
     <r>
       <rPr>
@@ -125,7 +148,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> to #16</t>
+      <t>如果发起的微调课程是本科课程，那么微调比准后，此本科课程的授课老师是正常的，打通的硕士课程的授课老师会一起修改，但是在后台数据库中授课老师的名字后面会加上”（未申报）"/"(已申报）“标识，这样还会导致”课程信息管理“页面总显示的此硕士课程的授课老师始终会额外加上”（未申报）“后缀。如果发起的微调课程是硕士课程，那么微调批准后，次硕士课程对应的授课老师是正常的，打通的本科课程的授课老师缺始终不会改动。此出考虑硕士课程和本科课程的区别，可能和他们在后台数据库中的相对位置有关系。</t>
     </r>
   </si>
   <si>
@@ -151,6 +174,153 @@
   </si>
   <si>
     <t>“教师信息管理”页面中-》“教务员”-》“微调信息”中，微调求情的状态简化为“已批准”，“已驳回”，“等待审批”</t>
+  </si>
+  <si>
+    <t>如果有”等待审批“的微调还未审批完成，”分配授课教师“步骤四不可以点击”确认完成这一步“，并给出提示”还有微调请求待审批，请完成所有审批。“</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">”
+2020-02-28 12:29:11 - 主管老师22222 - [CourseInfo]course_id:laws130023 teacher_final_pick: 陈力
+2020-02-28 12:29:11 - 主管老师22222 - course_relate:JM630041 teacher_final_pick: 陈力(未申报)
+2020-02-29 14:22:53 - 主管老师22222 - [CourseInfo]course_id:927.002.1 teacher_final_pick: 朱丹,张乃根
+2020-02-29 14:22:53 - 主管老师22222 - course_relate:123 teacher_final_pick: 朱丹(已申报),张乃根(已申报)
+2020-02-29 14:23:01 - 主管老师22222 - [CourseInfo]course_id:LAW830032 teacher_final_pick: 章武生
+“
+发现这样一段日志，判断是主管老师审批微调之后，在course_info中更新teacher_final_pick时系统做的日志。有几个点：
+1.在更新打通课程的地方没有记录是对哪张表的改动（见第2，4条日志）；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.课程代码为927.002.1的打通课程代码为”123“，实际不存在，这种情况实际代码会如何处理？</t>
+    </r>
+  </si>
+  <si>
+    <t>能不能记录最后一次“锁定排课结果”的时间，记在日志里也可以</t>
+  </si>
+  <si>
+    <t>主管老师批准或者驳回微调申请时，日志里面没法看出来每条批准或者驳回的记录是针对哪一个申请的。是否可以记录？</t>
+  </si>
+  <si>
+    <t>“课程信息管理”页面点击左侧导航栏“提交”按钮之后，会弹出窗口显示“DataTables warning: table id=table_course_manage - Requested unknown parameter '19' for row 0, column 19. For more information about this error, please see http://datatables.net/tn/4”，点击窗口“确定”键后，程序可以正常运行。</t>
+  </si>
+  <si>
+    <t>课程LAWS130074无法正常微调授课教师</t>
+  </si>
+  <si>
+    <t>“历史信息”页面中，“平行班级”为空，全部显示的是“none"。</t>
+  </si>
+  <si>
+    <t>锁定的时候平行班级拷贝有误/重新锁定</t>
+  </si>
+  <si>
+    <t>“历史信息”页面中，打通课程的“学位”没有显示另一个学位的信息，要用“/”隔开。</t>
+  </si>
+  <si>
+    <t>"历史信息“的导出文件中，”平行班级“内容有误，现在放的是打通课程代码。</t>
+  </si>
+  <si>
+    <t>导出有错误</t>
+  </si>
+  <si>
+    <t>"历史信息”的导出文件中，为什么有”未激活“和”状态”两个内容重复的列？如果要去掉一个保留一个的话，建议保留”状态“（内容是非激活），这样老师比较容易填写内容，不然他们会总是要想0是非激活还是1是非激活。</t>
+  </si>
+  <si>
+    <t>留状态，但是导入的时候是不是就是非激活？
+回答：是的。想问一下后台数据库里用“1”还是“非激活”，还有编辑课程信息的相应位置填0/1还是“激活”/“非激活”？几处统一一下吧。</t>
+  </si>
+  <si>
+    <t>修改密码的入口在哪里？</t>
+  </si>
+  <si>
+    <t>在branch，我可以先用我的qq邮箱</t>
+  </si>
+  <si>
+    <t>”教师信息管理“-》”教务员“-》”微调信息“页面中的按钮不见了，无法批准/驳回微调申请</t>
+  </si>
+  <si>
+    <t>是我搞错了：（</t>
+  </si>
+  <si>
+    <t>问题：我们现在对于打通课程代码，如果在“课程信息管理页面”中更新了一条课程的相关信息，和它关联的打通课程对应的信息是否会同步更新？如果没有实现这个，我们先记录着，可以之后完善，现在可以和老师说明要求他们手动同步。</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>不会同步</t>
+  </si>
+  <si>
+    <t>我把LAWS130023的授课老师从“许多奇”改成“陈力”（未申报老师），并且批准微调之后，到“课程信息管理”页面查看，LAWS130023的授课老师显示“陈力”（应该显示“陈力（未申报）”）；而它的打通课程JM630041的授课老师显示的是“陈力（未申报）”（正确）。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>related</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to #16</t>
+    </r>
+  </si>
+  <si>
+    <t>"课程信息管理“页面上如果”备注"是空，就什么都不要显示，不用显示“none“。</t>
+  </si>
+  <si>
+    <t>所有的notes都处理了</t>
+  </si>
+  <si>
+    <t>“教师信息管理”-》“主管领导”-》“微调信息”改成“微调审批”</t>
+  </si>
+  <si>
+    <t>“教师信息管理”-》“主管领导”-》“微调信息”页面中，”自动分配教师“改成”原授课教师“。并且原授课教师如果是未申报教师需要标注”（未申报）“标识。</t>
+  </si>
+  <si>
+    <t>请注意#16，”教务员“-》”微调信息“页面中的原授课教师，如果是未申报教师也需要标注”（未申报）“标识。</t>
+  </si>
+  <si>
+    <t>“教师信息管理”-》“主管领导”-》“微调信息”页面中，批准微调和驳回微调的弹窗中，原授课教师如果是未申报教师要标注“（未申报）”标识。</t>
+  </si>
+  <si>
+    <t>考虑到我们还没有废除”添加课程信息“按键，”添加课程信息“弹窗里的”状态“也要用下拉菜单选择，内容是”激活“/”非激活“。</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>”添加课程信息“的弹窗中，如果是已经存在的课程代码，”打通课程代码“，”是否精品课程“，”状态“，”平行班级数“应该都是不可更改内容。</t>
+  </si>
+  <si>
+    <t>”编辑课程信息“的弹窗中，如果后台数据库中对应课程的notes非空，此处的“备注”需要应用相应内容。</t>
+  </si>
+  <si>
+    <t>“教师信息管理”-》“教师个人”页面中，左侧导航栏在“教师个人”下给两个链接，一个是“申报课程”，一个是“排课结果”。默认显示“申报课程”页面，如果在排课结果锁定之前点击“排课结果”，页面显示信息“排课还未结束，请老师耐心等待结果。“。排课结果锁定之后老师进入”排课结果“查看，可以看到自己被分配到的课程。显示方法如同申报课程的页面，打通课程合并显示，只显示激活课程（就是原来隐含的排课结果锁定之后，教师个人登录系统会默认看到自己的排课结果，这个放到”排课结果“下面，这样会比较明确）。</t>
+  </si>
+  <si>
+    <t>需要验证</t>
   </si>
   <si>
     <r>
@@ -206,10 +376,13 @@
     <t>re-open</t>
   </si>
   <si>
-    <t>link to #29</t>
-  </si>
-  <si>
-    <t>如果有”等待审批“的微调还未审批完成，”分配授课教师“步骤四不可以点击”确认完成这一步“，并给出提示”还有微调请求待审批，请完成所有审批。“</t>
+    <t>”教师信息管理“-》”教务员“-》”微调信息“页面中，”原授课教师“如果是未申报教师要求显示“（未申报）”标识。这个还没有做。</t>
+  </si>
+  <si>
+    <t>“课程信息管理”页面中”编辑课程信息“弹窗中：是否精品课程的内容应该是下拉选项”精品课程“和”非精品课程“，状态的内容应该是下拉选项”激活“和”非激活“，可以防止老师乱填，影响我们的程序逻辑判断。</t>
+  </si>
+  <si>
+    <t>编辑课程信息窗口中，“状态”的填写应该是下拉菜单选择，选择内容是“激活”/“非激活”，不是“0”/“1”。如果选中的课程原状态栏是“非激活”，也要有下拉菜单选择可以选可以改这个值。具体格式参考“学期”。</t>
   </si>
   <si>
     <r>
@@ -219,102 +392,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">”
-2020-02-28 12:29:11 - 主管老师22222 - [CourseInfo]course_id:laws130023 teacher_final_pick: 陈力
-2020-02-28 12:29:11 - 主管老师22222 - course_relate:JM630041 teacher_final_pick: 陈力(未申报)
-2020-02-29 14:22:53 - 主管老师22222 - [CourseInfo]course_id:927.002.1 teacher_final_pick: 朱丹,张乃根
-2020-02-29 14:22:53 - 主管老师22222 - course_relate:123 teacher_final_pick: 朱丹(已申报),张乃根(已申报)
-2020-02-29 14:23:01 - 主管老师22222 - [CourseInfo]course_id:LAW830032 teacher_final_pick: 章武生
-“
-发现这样一段日志，判断是主管老师审批微调之后，在course_info中更新teacher_final_pick时系统做的日志。有几个点：
-1.在更新打通课程的地方没有记录是对哪张表的改动（见第2，4条日志）；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.课程代码为927.002.1的打通课程代码为”123“，实际不存在，这种情况实际代码会如何处理？</t>
-    </r>
-  </si>
-  <si>
-    <t>“分配授课教师”页面-》步骤五-》“锁定排课过程”按键无效。</t>
-  </si>
-  <si>
-    <t>需要等一会。没有做等待提升</t>
-  </si>
-  <si>
-    <t>“分配授课教师”页面-》步骤五-》“锁定排课过程”按键建议改名为"锁定排课结果“</t>
-  </si>
-  <si>
-    <t>“历史信息”页面中，“平行班级”为空，全部显示的是“none"。</t>
-  </si>
-  <si>
-    <t>锁定的时候平行班级拷贝有误/重新锁定</t>
-  </si>
-  <si>
-    <t>“历史信息”页面中，打通课程的“学位”没有显示另一个学位的信息，要用“/”隔开。</t>
-  </si>
-  <si>
-    <t>"历史信息“的导出文件中，”平行班级“内容有误，现在放的是打通课程代码。</t>
-  </si>
-  <si>
-    <t>导出有错误</t>
-  </si>
-  <si>
-    <t>"历史信息”的导出文件中，为什么有”未激活“和”状态”两个内容重复的列？如果要去掉一个保留一个的话，建议保留”状态“（内容是非激活），这样老师比较容易填写内容，不然他们会总是要想0是非激活还是1是非激活。</t>
-  </si>
-  <si>
-    <t>留状态，但是导入的时候是不是就是非激活？
-回答：是的。想问一下后台数据库里用“1”还是“非激活”，还有编辑课程信息的相应位置填0/1还是“激活”/“非激活”？几处统一一下吧。</t>
-  </si>
-  <si>
-    <t>修改密码的入口在哪里？</t>
-  </si>
-  <si>
-    <t>在branch，我可以先用我的qq邮箱</t>
-  </si>
-  <si>
-    <t>”教师信息管理“-》”教务员“-》”微调信息“页面中的按钮不见了，无法批准/驳回微调申请</t>
-  </si>
-  <si>
-    <t>是我搞错了：（</t>
-  </si>
-  <si>
-    <t>我们现在锁定排课结果的时候，会把微调说明合并进课程的notes里面一起进到历史信息的“notes”里，对吗?</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>会的</t>
-  </si>
-  <si>
-    <t>点击“课程信息管理”页面上“编辑课程信息”按键，改动“备注”（notes）的内容之后，查看log里关于course_info的记录，发现这里course_info没有记录notes这个字段。需要查看下，除了notes，还有没有其他的漏了。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给打通课程做授课教师微调，</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果微调程未申报的老师，在微调批准之后，在后台数据库中，两个打通课程的teacher_final_pick，一个是带“（未申报）”标记的，一个不带。前台“课程信息管理”页面的显示也有问题。</t>
+      <t>”历史信息“进入的默认页面显示最新的学年历史数据，其中”是否精品课程“会有显示”n</t>
     </r>
     <r>
       <rPr>
@@ -323,23 +401,38 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>如果发起的微调课程是本科课程，那么微调比准后，此本科课程的授课老师是正常的，打通的硕士课程的授课老师会一起修改，但是在后台数据库中授课老师的名字后面会加上”（未申报）"/"(已申报）“标识，这样还会导致”课程信息管理“页面总显示的此硕士课程的授课老师始终会额外加上”（未申报）“后缀。如果发起的微调课程是硕士课程，那么微调批准后，次硕士课程对应的授课老师是正常的，打通的本科课程的授课老师缺始终不会改动。此出考虑硕士课程和本科课程的区别，可能和他们在后台数据库中的相对位置有关系。</t>
+      <t>one"，不要显示"none"。</t>
     </r>
   </si>
   <si>
-    <t>能不能记录最后一次“锁定排课结果”的时间，记在日志里也可以</t>
-  </si>
-  <si>
-    <t>主管老师批准或者驳回微调申请时，日志里面没法看出来每条批准或者驳回的记录是针对哪一个申请的。是否可以记录？</t>
-  </si>
-  <si>
-    <t>“课程信息管理”页面点击左侧导航栏“提交”按钮之后，会弹出窗口显示“DataTables warning: table id=table_course_manage - Requested unknown parameter '19' for row 0, column 19. For more information about this error, please see http://datatables.net/tn/4”，点击窗口“确定”键后，程序可以正常运行。</t>
-  </si>
-  <si>
-    <t>“课程信息管理”页面中”编辑课程信息“弹窗中：是否精品课程的内容应该是下拉选项”精品课程“和”非精品课程“，状态的内容应该是下拉选项”激活“和”非激活“，可以防止老师乱填，影响我们的程序逻辑判断。</t>
-  </si>
-  <si>
-    <t>课程LAWS130074无法正常微调授课教师</t>
+    <t>”课程信息管理“页面进入的时候默认页面”申报教师”显示的是数据库中的“teacher_ordered”，当左侧导航栏提交过之后，”申报教师“就会显示数据库中的”suit_teacher“</t>
+  </si>
+  <si>
+    <t>”课程信息管理“和“历史信息”页面进入的时候默认显示的”学时“和”难度“都是带一位小数的格式（如36.0），当左侧导航栏提交过之后，都会显示整数格式（如36）。请统一一下</t>
+  </si>
+  <si>
+    <t>”课程信息管理“（包括导出数据）和”历史信息“（包括导出数据）页面中，授课教师凡是一人以上的，最后一个授课教师都会被标识成（未申报），即使他申报过这门课。</t>
+  </si>
+  <si>
+    <t>”历史信息“导出的排课报表貌似数据有误，我核对了头上三个，每个老师都少算一门课。</t>
+  </si>
+  <si>
+    <t>"教师信息管理”-》“教务员”-》“申报信息”的导出文件需要做成教师信息的导入文件格式。现在的主要问题是没有性别这一列。</t>
+  </si>
+  <si>
+    <t>“教师信息管理”-》“教务员”-》“申报信息”的导出文件，文件名改成“教师信息”</t>
+  </si>
+  <si>
+    <t>如果一门课程原来是非激活课程，我现在想先激活它，然后用微调给它分配一个老师，现在的系统是不可以微调没有授课教师的课程的。需要有这个功能。</t>
+  </si>
+  <si>
+    <t>如果有一门课程原来是激活状态，并且分配了授课老师了，现在要非激活，请问原来这个授课老师的已分配学时和难度会相应更新吗？</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>如果有一门课程原来是激活状态，并且分配了一位授课老师了，现在要再增加一位授课老师（或原来是两位，现在要减少到一位），请问原来这个/些授课老师的已分配学时和难度会相应更新吗？</t>
   </si>
 </sst>
 </file>
@@ -348,11 +441,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,9 +474,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,8 +488,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,6 +533,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -418,23 +549,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,17 +571,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,18 +595,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,35 +611,13 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -551,6 +629,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -573,187 +658,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,17 +852,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,42 +886,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,8 +924,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,10 +957,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,138 +969,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1030,7 +1118,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1039,19 +1133,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1389,23 +1489,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.10833333333333" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
-    <col min="5" max="6" width="9.88333333333333" customWidth="1"/>
-    <col min="7" max="7" width="9.21666666666667" customWidth="1"/>
-    <col min="8" max="8" width="56.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="5" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="56.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1417,7 +1517,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1428,16 +1528,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>43874</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>43886</v>
       </c>
       <c r="G2" t="s">
@@ -1457,13 +1557,13 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>43874</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>43877</v>
       </c>
       <c r="G3" t="s">
@@ -1477,6 +1577,446 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="54.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="35.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5" hidden="1" spans="1:7">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43898</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43899</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43898</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="4" ht="42.75" spans="1:7">
+      <c r="A4">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43898</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43899</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" ht="42.75" spans="1:6">
+      <c r="A5">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43898</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" hidden="1" spans="1:6">
+      <c r="A6">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43898</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="7" ht="42.75" hidden="1" spans="1:6">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43898</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" ht="28.5" spans="1:6">
+      <c r="A8">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43898</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="9" ht="128.25" spans="1:7">
+      <c r="A9">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43898</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43899</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="141.75" hidden="1" spans="1:7">
+      <c r="A10" s="1">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="8">
+        <v>43890</v>
+      </c>
+      <c r="F10" s="8">
+        <v>43892</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="71.25" spans="1:7">
+      <c r="A11" s="1">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8">
+        <v>43897</v>
+      </c>
+      <c r="F11" s="5">
+        <v>43899</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" hidden="1" spans="1:5">
+      <c r="A12">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="5">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="13" ht="42.75" spans="1:5">
+      <c r="A13">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="14" ht="42.75" hidden="1" spans="1:5">
+      <c r="A14">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="5">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="15" ht="42.75" spans="1:5">
+      <c r="A15">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="5">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:5">
+      <c r="A16">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="5">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:5">
+      <c r="A17">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="5">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:5">
+      <c r="A18">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="5">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="19" ht="42.75" spans="1:5">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="5">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="20" ht="42.75" spans="1:5">
+      <c r="A20">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="5">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="21" ht="57" spans="1:5">
+      <c r="A21">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="5">
+        <v>43898</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G21">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -1505,13 +2045,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.21666666666667" customWidth="1"/>
-    <col min="2" max="2" width="7.10833333333333" customWidth="1"/>
-    <col min="3" max="3" width="50.2166666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="50.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="54.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="45.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="54.375" customWidth="1"/>
+    <col min="8" max="8" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1521,7 +2061,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1533,7 +2073,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1544,19 +2084,19 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>43882</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>43886</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1567,19 +2107,19 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>43882</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>43892</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1590,16 +2130,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>43882</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>43886</v>
       </c>
       <c r="G4" t="s">
@@ -1613,16 +2153,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>43882</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>43886</v>
       </c>
       <c r="G5" t="s">
@@ -1649,13 +2189,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.10833333333333" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.88333333333333" customWidth="1"/>
-    <col min="6" max="6" width="8.88333333333333" customWidth="1"/>
-    <col min="7" max="7" width="17.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1665,7 +2205,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1677,7 +2217,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1688,19 +2228,19 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>43888</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>43892</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1711,16 +2251,16 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>43888</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" ht="28.5" spans="1:6">
       <c r="A4">
@@ -1729,16 +2269,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>43888</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>43892</v>
       </c>
     </row>
@@ -1749,16 +2289,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>43888</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>43892</v>
       </c>
     </row>
@@ -1769,16 +2309,16 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>43888</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>43892</v>
       </c>
     </row>
@@ -1792,33 +2332,33 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.10833333333333" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.88333333333333" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.21666666666667" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1830,48 +2370,51 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="71.25" spans="1:5">
+    <row r="2" ht="28.5" spans="1:7">
       <c r="A2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43891</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43893</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4">
-        <v>43889</v>
-      </c>
-    </row>
-    <row r="3" ht="85.5" spans="1:7">
+    </row>
+    <row r="3" ht="28.5" spans="1:6">
       <c r="A3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4">
-        <v>43889</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43892</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>28</v>
+      <c r="E3" s="5">
+        <v>43891</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43893</v>
       </c>
     </row>
   </sheetData>
@@ -1884,23 +2427,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.55833333333333" customWidth="1"/>
-    <col min="2" max="2" width="2.55833333333333" customWidth="1"/>
-    <col min="3" max="3" width="49.1083333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.55833333333333" customWidth="1"/>
-    <col min="5" max="5" width="10.1083333333333" customWidth="1"/>
-    <col min="6" max="6" width="9.10833333333333" customWidth="1"/>
-    <col min="7" max="7" width="10.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="50.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1910,7 +2452,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1922,112 +2464,89 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="42.75" spans="1:6">
+    <row r="2" ht="28.5" spans="1:7">
       <c r="A2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43896</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43898</v>
+      </c>
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="10" t="s">
+    </row>
+    <row r="3" ht="57" spans="1:6">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
-        <v>43890</v>
-      </c>
-      <c r="F2" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="3" ht="28.5" spans="1:6">
-      <c r="A3">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="5">
+        <v>43896</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="4" s="13" customFormat="1" ht="185.25" spans="1:6">
+      <c r="A4" s="13">
+        <v>29</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4">
-        <v>43870</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="141.75" spans="1:7">
-      <c r="A4" s="5">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="8">
-        <v>43890</v>
-      </c>
-      <c r="F4" s="8">
-        <v>43892</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" ht="42.75" spans="1:6">
-      <c r="A5">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4">
-        <v>43890</v>
-      </c>
-      <c r="F5" s="4">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="6" ht="299.25" spans="1:6">
-      <c r="A6">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>43890</v>
-      </c>
-      <c r="F6" s="4">
-        <v>43893</v>
-      </c>
+      <c r="E4" s="17">
+        <v>43896</v>
+      </c>
+      <c r="F4" s="17">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="14"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2041,31 +2560,31 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.10833333333333" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.88333333333333" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.21666666666667" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="2.5" customWidth="1"/>
+    <col min="3" max="3" width="49.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2077,50 +2596,87 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:7">
+    <row r="2" ht="42.75" spans="1:6">
       <c r="A2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
-        <v>43891</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="5">
+        <v>43890</v>
+      </c>
+      <c r="F2" s="5">
         <v>43893</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
       <c r="A3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4">
-        <v>43891</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="5">
+        <v>43870</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="4" ht="42.75" spans="1:6">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43890</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="5" ht="299.25" spans="1:6">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43890</v>
+      </c>
+      <c r="F5" s="5">
         <v>43893</v>
       </c>
     </row>
@@ -2134,23 +2690,22 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.10833333333333" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="8.88333333333333" customWidth="1"/>
-    <col min="6" max="6" width="32.1083333333333" customWidth="1"/>
-    <col min="7" max="7" width="42.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="50.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2160,7 +2715,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2172,140 +2727,88 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:7">
+    <row r="2" ht="28.5" spans="1:6">
       <c r="A2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43897</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" spans="1:6">
+      <c r="A3">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43897</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="4" ht="85.5" spans="1:6">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43897</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4">
-        <v>43894</v>
-      </c>
-      <c r="F2" s="4">
-        <v>43895</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" ht="28.5" spans="1:6">
-      <c r="A3">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4">
-        <v>43894</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43895</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" spans="1:7">
-      <c r="A4">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4">
-        <v>43894</v>
-      </c>
-      <c r="F4" s="4">
-        <v>43895</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="71.25" spans="1:7">
-      <c r="A5" s="5">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8">
-        <v>43894</v>
-      </c>
-      <c r="F5" s="8">
-        <v>43895</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4">
-        <v>43894</v>
-      </c>
-      <c r="F6" s="4">
-        <v>43895</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:7">
-      <c r="A7">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4">
-        <v>43894</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
+      <c r="D5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43897</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43898</v>
       </c>
     </row>
   </sheetData>
@@ -2317,21 +2820,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.21666666666667" customWidth="1"/>
-    <col min="2" max="2" width="7.10833333333333" customWidth="1"/>
-    <col min="3" max="3" width="50.4416666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44166666666667" customWidth="1"/>
-    <col min="5" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="32.125" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2341,7 +2847,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2353,89 +2859,141 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:7">
       <c r="A2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43894</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43895</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:6">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43894</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:7">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43894</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43895</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" s="13" customFormat="1" ht="71.25" spans="1:7">
+      <c r="A5" s="13">
+        <v>24</v>
+      </c>
+      <c r="B5" s="13">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="17">
+        <v>43894</v>
+      </c>
+      <c r="F5" s="17">
+        <v>43895</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43894</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43895</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:7">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43894</v>
+      </c>
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="4">
-        <v>43896</v>
-      </c>
-      <c r="F2" s="4">
-        <v>43898</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="57" spans="1:6">
-      <c r="A3">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4">
-        <v>43896</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="185.25" spans="1:6">
-      <c r="A4" s="5">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8">
-        <v>43896</v>
-      </c>
-      <c r="F4" s="8">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2446,21 +3004,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.21666666666667" customWidth="1"/>
-    <col min="2" max="2" width="7.10833333333333" customWidth="1"/>
-    <col min="3" max="3" width="50.4416666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44166666666667" customWidth="1"/>
-    <col min="5" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2470,7 +3031,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2482,108 +3043,51 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:6">
+    <row r="2" ht="71.25" spans="1:7">
       <c r="A2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43889</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="85.5" spans="1:7">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43889</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43892</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4">
-        <v>43897</v>
-      </c>
-      <c r="F2" s="4">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="3" ht="42.75" spans="1:6">
-      <c r="A3">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4">
-        <v>43897</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="4" ht="85.5" spans="1:6">
-      <c r="A4">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4">
-        <v>43897</v>
-      </c>
-      <c r="F4" s="4">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="5" ht="57" spans="1:6">
-      <c r="A5">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4">
-        <v>43897</v>
-      </c>
-      <c r="F5" s="4">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>34</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4">
-        <v>43897</v>
-      </c>
-      <c r="F6" s="4">
-        <v>43898</v>
       </c>
     </row>
   </sheetData>

--- a/issue-tracking-2020-feb.xlsx
+++ b/issue-tracking-2020-feb.xlsx
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2020-3-8'!$A$1:$G$21</definedName>
   </definedNames>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>序号</t>
   </si>
@@ -420,6 +420,9 @@
     <t>"教师信息管理”-》“教务员”-》“申报信息”的导出文件需要做成教师信息的导入文件格式。现在的主要问题是没有性别这一列。</t>
   </si>
   <si>
+    <t>需要重新做导出</t>
+  </si>
+  <si>
     <t>“教师信息管理”-》“教务员”-》“申报信息”的导出文件，文件名改成“教师信息”</t>
   </si>
   <si>
@@ -432,7 +435,13 @@
     <t>question</t>
   </si>
   <si>
+    <t>激活改成非激活不会更新</t>
+  </si>
+  <si>
     <t>如果有一门课程原来是激活状态，并且分配了一位授课老师了，现在要再增加一位授课老师（或原来是两位，现在要减少到一位），请问原来这个/些授课老师的已分配学时和难度会相应更新吗？</t>
+  </si>
+  <si>
+    <t>微调那边对更改过的教师和允许教师数会做检查，数目不对不会更改。如果改完允许教师数是符合的，原教师会和新的授课老师难度学时都会更新，但是更新的值是课程的学时/原教师数。这里原教师数根据 #50 做了异常处理</t>
   </si>
 </sst>
 </file>
@@ -445,14 +454,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,30 +477,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,8 +505,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,14 +536,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,6 +576,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,21 +621,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -658,13 +660,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +756,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,157 +828,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,17 +854,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,66 +932,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,10 +959,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,137 +971,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,10 +1111,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1127,37 +1129,25 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1531,7 +1521,7 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5">
@@ -1557,7 +1547,7 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5">
@@ -1581,8 +1571,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1805,7 +1795,7 @@
       <c r="F10" s="8">
         <v>43892</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1819,7 +1809,7 @@
       <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="8">
@@ -1828,7 +1818,7 @@
       <c r="F11" s="5">
         <v>43899</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1860,7 +1850,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5">
         <v>43898</v>
@@ -1894,7 +1884,7 @@
         <v>76</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E15" s="5">
         <v>43898</v>
@@ -1911,13 +1901,13 @@
         <v>77</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E16" s="5">
         <v>43898</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="1:5">
+    <row r="17" ht="28.5" spans="1:7">
       <c r="A17">
         <v>48</v>
       </c>
@@ -1933,8 +1923,11 @@
       <c r="E17" s="5">
         <v>43898</v>
       </c>
-    </row>
-    <row r="18" ht="28.5" spans="1:5">
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:7">
       <c r="A18">
         <v>49</v>
       </c>
@@ -1942,13 +1935,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="5">
         <v>43898</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="19" ht="42.75" spans="1:5">
@@ -1959,16 +1955,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E19" s="5">
         <v>43898</v>
       </c>
     </row>
-    <row r="20" ht="42.75" spans="1:5">
+    <row r="20" ht="42.75" spans="1:7">
       <c r="A20">
         <v>51</v>
       </c>
@@ -1976,16 +1972,19 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E20" s="5">
         <v>43898</v>
       </c>
-    </row>
-    <row r="21" ht="57" spans="1:5">
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" ht="57" spans="1:7">
       <c r="A21">
         <v>52</v>
       </c>
@@ -1993,13 +1992,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="E21" s="5">
         <v>43898</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2089,7 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5">
@@ -2096,7 +2098,7 @@
       <c r="F2" s="5">
         <v>43886</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2107,10 +2109,10 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5">
@@ -2119,7 +2121,7 @@
       <c r="F3" s="5">
         <v>43892</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2133,7 +2135,7 @@
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5">
@@ -2156,7 +2158,7 @@
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5">
@@ -2228,10 +2230,10 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5">
@@ -2240,7 +2242,7 @@
       <c r="F2" s="5">
         <v>43892</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2251,10 +2253,10 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="5">
@@ -2269,10 +2271,10 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5">
@@ -2289,10 +2291,10 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5">
@@ -2309,10 +2311,10 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5">
@@ -2384,7 +2386,7 @@
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5">
@@ -2407,7 +2409,7 @@
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5">
@@ -2475,7 +2477,7 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2498,10 +2500,10 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5">
@@ -2511,41 +2513,41 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="4" s="13" customFormat="1" ht="185.25" spans="1:6">
-      <c r="A4" s="13">
+    <row r="4" s="10" customFormat="1" ht="185.25" spans="1:6">
+      <c r="A4" s="10">
         <v>29</v>
       </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="13">
         <v>43896</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="13">
         <v>43898</v>
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="14"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="14"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="14"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
   </sheetData>
@@ -2607,10 +2609,10 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5">
@@ -2627,10 +2629,10 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5">
@@ -2647,10 +2649,10 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5">
@@ -2667,10 +2669,10 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5">
@@ -2738,10 +2740,10 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5">
@@ -2758,7 +2760,7 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2778,7 +2780,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2798,10 +2800,10 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5">
@@ -2870,7 +2872,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2893,7 +2895,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2913,7 +2915,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2929,26 +2931,26 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" s="13" customFormat="1" ht="71.25" spans="1:7">
-      <c r="A5" s="13">
+    <row r="5" s="10" customFormat="1" ht="71.25" spans="1:7">
+      <c r="A5" s="10">
         <v>24</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="13">
         <v>43894</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="13">
         <v>43895</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2959,7 +2961,7 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2982,10 +2984,10 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="5">
@@ -3057,7 +3059,7 @@
       <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="5">
@@ -3086,7 +3088,7 @@
       <c r="F3" s="5">
         <v>43892</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="4" t="s">
         <v>55</v>
       </c>
     </row>

--- a/issue-tracking-2020-feb.xlsx
+++ b/issue-tracking-2020-feb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="9"/>
+    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2-13" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,20 @@
     <sheet name="2020-3-4" sheetId="9" r:id="rId8"/>
     <sheet name="2020-2-28" sheetId="5" r:id="rId9"/>
     <sheet name="2020-3-8" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId11"/>
+    <sheet name="2020-3-9" sheetId="13" r:id="rId11"/>
+    <sheet name="2020-3-10" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2020-3-8'!$A$1:$G$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'2020-3-9'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'2020-3-10'!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>序号</t>
   </si>
@@ -443,18 +446,142 @@
   <si>
     <t>微调那边对更改过的教师和允许教师数会做检查，数目不对不会更改。如果改完允许教师数是符合的，原教师会和新的授课老师难度学时都会更新，但是更新的值是课程的学时/原教师数。这里原教师数根据 #50 做了异常处理</t>
   </si>
+  <si>
+    <t>“历史信息”导出排课结果，导出的workbook里面的那张worksheet的名字必须是“课程信息”，因为之后导入课程的时候，系统会去找那张叫“课程信息”的worksheet。</t>
+  </si>
+  <si>
+    <t>上一学年排课结束之后，要提供一个按钮，可以开始新的一学年排课。需要清掉step_info,course_info,adjust_info,teacher</t>
+  </si>
+  <si>
+    <t>“课程信息管理”页面，“删除改行”按钮失效</t>
+  </si>
+  <si>
+    <t>delete 按钮 关于班级的index出错了</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“教师信息管理”-》“教师个人”的“申报课程”和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"排课结果“页面中，以及”历史信息“页面中，”班级“信息的中的”-“和”_"连接符（连接学位和年级和班级的连接符）都不要，只保留班级和班级之间的分隔符”/“。</t>
+    </r>
+  </si>
+  <si>
+    <t>”课程信息管理“页面的“编辑课程信息”，弹窗中没有完全加载原有条目中的数据内容。</t>
+  </si>
+  <si>
+    <t>课程导入文件里的状态填写”非激活“的话，导入课程显示是激活的。后台数据库对应数值为”0“</t>
+  </si>
+  <si>
+    <t>历史页面导出的非激活位置不对，我把它放到平行班级之后了</t>
+  </si>
+  <si>
+    <t>”课程信息管理“、”教师信息管理“-》”教师个人“-》”申报课程“页面左侧导航栏中的学位列表和学科组列表要和实际内容一致。现在发现”法律硕士“改名”JM“之后，点击导航栏提交按键后，所有JM的课程无法显示。</t>
+  </si>
+  <si>
+    <t>学位和学期用的是页面的固定值，不是动态获取的。只有学科是。需要做么？</t>
+  </si>
+  <si>
+    <t>加载历史信息似乎把course_info和history_info的数据混起来了。当我把step_info删掉（就是说打算开始新的一学年排课），此时进历史信息，选择2019-2020，系统报错说获取历史信息失败。当我开始2020-2021学年的排课并且导入课程之后，今日历史信息，选择2019-2020，出来的历史课程列表，明显可见打通课程里，所有的被打通的法律硕士的课程都是2020-2021学年新导入的课表里的课程。</t>
+  </si>
+  <si>
+    <t>历史信息导出的打通课程代码，跟当前排课的应该没有任何关系。</t>
+  </si>
+  <si>
+    <t>课程导入文件里“是否精品课程”的值是“精品课程”，因为历史信息的导出就是这个，保持一致比较好。原来用的是“是”，要改成“精品课程”。</t>
+  </si>
+  <si>
+    <t>课程导入时，数据库里的suit_teacher和teacher_ordered应该和excel里的“申报教师”保持一致，而不是“可选教师”，因为历史信息导出的文件里只有”申报教师“，没有”可选教师“（内容是空的）。</t>
+  </si>
+  <si>
+    <t>我把历史导出的可选教师数据跟申报教师写成一致，这样就不需要改导入的代码。</t>
+  </si>
+  <si>
+    <t>课程导入时，把授课教师和备注也带上</t>
+  </si>
+  <si>
+    <t>”课程信息管理“页面上的”非激活课程总数”计数没有把打通课程的去掉。</t>
+  </si>
+  <si>
+    <t>如果有打通课程只算一个？</t>
+  </si>
+  <si>
+    <t>“编辑课程信息”的时候，如果把平行班从“1”改成“2”，确认之后，数据库里的教师数就会*2；并且之后这门课每次用“编辑课程信息”点开再确认，教师数就会*2。关于平行班和教师数，要注意导入，导出和编辑课程信息窗口的统一。</t>
+  </si>
+  <si>
+    <t>步骤二中申报截止时间设定完之后没有自动刷新这个设定按键。</t>
+  </si>
+  <si>
+    <t>教师个人申报课程的弹窗里最下面有个没有名字并且内容为undefined的框。</t>
+  </si>
+  <si>
+    <t>教师个人完成申报的按键会fail</t>
+  </si>
+  <si>
+    <t>需要现场，我本地可以</t>
+  </si>
+  <si>
+    <t>教师个人申报打通课程，申报完了显示申报成功，但是后台数据库并没有写入，所以刷新后就没有了</t>
+  </si>
+  <si>
+    <t>按我的实验结果，有可能是你申报课程的那个用户没有在TeacherInfo的表里面</t>
+  </si>
+  <si>
+    <t>检查申报结果能显示多少信息？我还没开始申报，检查看只有6条。我又试了一个情况应该报5条，实际只报了4条</t>
+  </si>
+  <si>
+    <t>应该全部显示，原判断条件有误。现在应可以了</t>
+  </si>
+  <si>
+    <t>排课异常，log最后如下“2020-03-10 20:12:32 - &lt;STEP 1 Limitation for teacher list&gt;
+2020-03-10 20:12:32 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:12:32 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:12:32 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:12:32 - 排课异常:u''
+”
+而且检查申报情况是没有异常……其实有一门课没有人申报。我把这门课非激活之后还是异常，显示：
+”
+2020-03-10 20:31:14 - &lt;STEP 1 Limitation for teacher list&gt;
+2020-03-10 20:31:14 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:31:14 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:31:14 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:31:14 - 排课异常:u'\u675c\u5b87'
+“</t>
+  </si>
+  <si>
+    <t>这里可能是跟#70的错误有关系</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,66 +604,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,9 +617,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,6 +649,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -589,8 +663,45 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,7 +725,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,7 +787,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +889,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,37 +937,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,121 +967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,18 +984,25 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -890,6 +1024,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -906,33 +1055,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,17 +1079,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -971,141 +1098,168 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1114,10 +1268,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1129,29 +1286,29 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1201,6 +1358,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1495,7 +1653,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1507,7 +1665,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1518,16 +1676,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="13">
         <v>43874</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="13">
         <v>43886</v>
       </c>
       <c r="G2" t="s">
@@ -1547,13 +1705,13 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="13">
         <v>43874</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="13">
         <v>43877</v>
       </c>
       <c r="G3" t="s">
@@ -1571,15 +1729,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="54.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.625" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
@@ -1593,7 +1751,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1605,7 +1763,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1616,16 +1774,16 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="13">
         <v>43898</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="13">
         <v>43899</v>
       </c>
       <c r="G2" t="s">
@@ -1639,16 +1797,16 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13">
         <v>43898</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="13">
         <v>43899</v>
       </c>
     </row>
@@ -1659,19 +1817,19 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="13">
         <v>43898</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="13">
         <v>43899</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1682,16 +1840,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="13">
         <v>43898</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="13">
         <v>43899</v>
       </c>
     </row>
@@ -1702,16 +1860,16 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="13">
         <v>43898</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="13">
         <v>43899</v>
       </c>
     </row>
@@ -1722,16 +1880,16 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="13">
         <v>43898</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" ht="28.5" spans="1:6">
       <c r="A8">
@@ -1740,16 +1898,16 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="13">
         <v>43898</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="13">
         <v>43899</v>
       </c>
     </row>
@@ -1760,65 +1918,65 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="13">
         <v>43898</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="13">
         <v>43899</v>
       </c>
       <c r="G9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="141.75" hidden="1" spans="1:7">
-      <c r="A10" s="1">
+    <row r="10" s="8" customFormat="1" ht="141.75" hidden="1" spans="1:7">
+      <c r="A10" s="8">
         <v>16</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="17">
         <v>43890</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="17">
         <v>43892</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="71.25" spans="1:7">
-      <c r="A11" s="1">
+    <row r="11" s="9" customFormat="1" ht="71.25" spans="1:7">
+      <c r="A11" s="9">
         <v>33</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="20">
         <v>43897</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="20">
         <v>43899</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1829,13 +1987,13 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="13">
         <v>43898</v>
       </c>
     </row>
@@ -1846,13 +2004,13 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="13">
         <v>43898</v>
       </c>
     </row>
@@ -1863,13 +2021,13 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="13">
         <v>43898</v>
       </c>
     </row>
@@ -1880,13 +2038,13 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="13">
         <v>43898</v>
       </c>
     </row>
@@ -1897,50 +2055,50 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="13">
         <v>43898</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="1:7">
+    <row r="17" ht="28.5" hidden="1" spans="1:7">
       <c r="A17">
         <v>48</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="13">
         <v>43898</v>
       </c>
       <c r="G17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" ht="28.5" spans="1:7">
+    <row r="18" ht="28.5" hidden="1" spans="1:7">
       <c r="A18">
         <v>49</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="13">
         <v>43898</v>
       </c>
       <c r="G18" t="s">
@@ -1954,13 +2112,13 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="13">
         <v>43898</v>
       </c>
     </row>
@@ -1971,13 +2129,13 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="13">
         <v>43898</v>
       </c>
       <c r="G20" t="s">
@@ -1991,13 +2149,13 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="13">
         <v>43898</v>
       </c>
       <c r="G21" t="s">
@@ -2021,15 +2179,519 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="56.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="42.75" spans="1:6">
+      <c r="A2" s="1">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43898</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" ht="28.5" spans="1:6">
+      <c r="A3" s="1">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43898</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43898</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43900</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" ht="57" spans="1:6">
+      <c r="A5" s="1">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43898</v>
+      </c>
+      <c r="F5" s="4">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:6">
+      <c r="A6" s="1">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43898</v>
+      </c>
+      <c r="F6" s="4">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:7">
+      <c r="A7" s="1">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43898</v>
+      </c>
+      <c r="F7" s="4">
+        <v>43900</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="3:7">
+      <c r="C10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="3:7">
+      <c r="C11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G7"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="71.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="57" spans="1:7">
+      <c r="A2" s="1">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43900</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" ht="99.75" spans="1:7">
+      <c r="A3" s="1">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43900</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" ht="42.75" spans="1:6">
+      <c r="A4" s="1">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43900</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="5" ht="42.75" spans="1:7">
+      <c r="A5" s="1">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43900</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:5">
+      <c r="A6" s="1">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:7">
+      <c r="A7" s="1">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43900</v>
+      </c>
+      <c r="F7" s="4">
+        <v>43900</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" ht="57" spans="1:5">
+      <c r="A8" s="1">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" hidden="1" spans="3:3">
+      <c r="C10" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43900</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:7">
+      <c r="A12" s="1">
+        <v>69</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="4">
+        <v>43900</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:7">
+      <c r="A13" s="1">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43900</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" ht="399" spans="1:7">
+      <c r="A14" s="1">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43900</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G14">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2049,7 +2711,7 @@
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="50.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.25" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="54.375" customWidth="1"/>
@@ -2063,7 +2725,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2075,7 +2737,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2086,19 +2748,19 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="13">
         <v>43882</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="13">
         <v>43886</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2109,19 +2771,19 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="13">
         <v>43882</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="13">
         <v>43892</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2132,16 +2794,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="13">
         <v>43882</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="13">
         <v>43886</v>
       </c>
       <c r="G4" t="s">
@@ -2155,16 +2817,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="13">
         <v>43882</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="13">
         <v>43886</v>
       </c>
       <c r="G5" t="s">
@@ -2193,7 +2855,7 @@
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="10" customWidth="1"/>
     <col min="4" max="4" width="6.625" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
@@ -2207,7 +2869,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2219,7 +2881,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2230,19 +2892,19 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="13">
         <v>43888</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="13">
         <v>43892</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2253,16 +2915,16 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="13">
         <v>43888</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" ht="28.5" spans="1:6">
       <c r="A4">
@@ -2271,16 +2933,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="13">
         <v>43888</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="13">
         <v>43892</v>
       </c>
     </row>
@@ -2291,16 +2953,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="13">
         <v>43888</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="13">
         <v>43892</v>
       </c>
     </row>
@@ -2311,16 +2973,16 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="13">
         <v>43888</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="13">
         <v>43892</v>
       </c>
     </row>
@@ -2346,7 +3008,7 @@
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="10" customWidth="1"/>
     <col min="4" max="4" width="5.625" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
@@ -2360,7 +3022,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2372,7 +3034,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2383,16 +3045,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="13">
         <v>43891</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="13">
         <v>43893</v>
       </c>
       <c r="G2" t="s">
@@ -2406,16 +3068,16 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="13">
         <v>43891</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="13">
         <v>43893</v>
       </c>
     </row>
@@ -2441,7 +3103,7 @@
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="50.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.5" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
@@ -2454,7 +3116,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2466,7 +3128,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2477,16 +3139,16 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="13">
         <v>43896</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="13">
         <v>43898</v>
       </c>
       <c r="G2" t="s">
@@ -2500,55 +3162,55 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="13">
         <v>43896</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="13">
         <v>43898</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" ht="185.25" spans="1:6">
-      <c r="A4" s="10">
+    <row r="4" s="9" customFormat="1" ht="185.25" spans="1:6">
+      <c r="A4" s="9">
         <v>29</v>
       </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="20">
         <v>43896</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="20">
         <v>43898</v>
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2572,7 +3234,7 @@
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="3" width="49.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
@@ -2586,7 +3248,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2598,7 +3260,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2609,16 +3271,16 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="13">
         <v>43890</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="13">
         <v>43893</v>
       </c>
     </row>
@@ -2629,16 +3291,16 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="13">
         <v>43870</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="13">
         <v>43892</v>
       </c>
     </row>
@@ -2649,16 +3311,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="13">
         <v>43890</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="13">
         <v>43893</v>
       </c>
     </row>
@@ -2669,16 +3331,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="13">
         <v>43890</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="13">
         <v>43893</v>
       </c>
     </row>
@@ -2704,7 +3366,7 @@
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="50.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.5" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
@@ -2717,7 +3379,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2729,7 +3391,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2740,16 +3402,16 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="13">
         <v>43897</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="13">
         <v>43898</v>
       </c>
     </row>
@@ -2760,16 +3422,16 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="13">
         <v>43897</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="13">
         <v>43898</v>
       </c>
     </row>
@@ -2780,16 +3442,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="13">
         <v>43897</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="13">
         <v>43898</v>
       </c>
     </row>
@@ -2800,16 +3462,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="13">
         <v>43897</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="13">
         <v>43898</v>
       </c>
     </row>
@@ -2835,7 +3497,7 @@
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="10" customWidth="1"/>
     <col min="4" max="4" width="5.625" customWidth="1"/>
     <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="6" max="6" width="32.125" customWidth="1"/>
@@ -2849,7 +3511,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2861,7 +3523,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2872,16 +3534,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="13">
         <v>43894</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="13">
         <v>43895</v>
       </c>
       <c r="G2" t="s">
@@ -2895,16 +3557,16 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="13">
         <v>43894</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="13">
         <v>43895</v>
       </c>
     </row>
@@ -2915,42 +3577,42 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="13">
         <v>43894</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="13">
         <v>43895</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" ht="71.25" spans="1:7">
-      <c r="A5" s="10">
+    <row r="5" s="9" customFormat="1" ht="71.25" spans="1:7">
+      <c r="A5" s="9">
         <v>24</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="20">
         <v>43894</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="20">
         <v>43895</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2961,16 +3623,16 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="13">
         <v>43894</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="13">
         <v>43895</v>
       </c>
       <c r="G6" t="s">
@@ -2984,13 +3646,13 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="13">
         <v>43894</v>
       </c>
       <c r="G7" t="s">
@@ -3012,14 +3674,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="10" customWidth="1"/>
     <col min="4" max="4" width="5.625" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
@@ -3033,7 +3695,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3045,7 +3707,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3056,13 +3718,13 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="13">
         <v>43889</v>
       </c>
       <c r="G2" t="s">
@@ -3076,19 +3738,19 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="13">
         <v>43889</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="13">
         <v>43892</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="14" t="s">
         <v>55</v>
       </c>
     </row>

--- a/issue-tracking-2020-feb.xlsx
+++ b/issue-tracking-2020-feb.xlsx
@@ -497,7 +497,7 @@
     <t>加载历史信息似乎把course_info和history_info的数据混起来了。当我把step_info删掉（就是说打算开始新的一学年排课），此时进历史信息，选择2019-2020，系统报错说获取历史信息失败。当我开始2020-2021学年的排课并且导入课程之后，今日历史信息，选择2019-2020，出来的历史课程列表，明显可见打通课程里，所有的被打通的法律硕士的课程都是2020-2021学年新导入的课表里的课程。</t>
   </si>
   <si>
-    <t>历史信息导出的打通课程代码，跟当前排课的应该没有任何关系。</t>
+    <t>两个位置的表取错了</t>
   </si>
   <si>
     <t>课程导入文件里“是否精品课程”的值是“精品课程”，因为历史信息的导出就是这个，保持一致比较好。原来用的是“是”，要改成“精品课程”。</t>
@@ -569,19 +569,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,8 +603,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,9 +650,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -678,30 +688,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,15 +725,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -741,7 +734,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,13 +780,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,138 +918,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -955,19 +930,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,11 +974,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,6 +994,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,21 +1033,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,17 +1063,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,10 +1079,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1098,19 +1091,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,141 +1112,141 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1268,13 +1261,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1289,22 +1279,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1679,7 +1666,7 @@
       <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="13">
@@ -1705,7 +1692,7 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="13">
@@ -1800,7 +1787,7 @@
       <c r="C3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="13">
@@ -1820,7 +1807,7 @@
       <c r="C4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="13">
@@ -1843,7 +1830,7 @@
       <c r="C5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="13">
@@ -1863,7 +1850,7 @@
       <c r="C6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="13">
@@ -1883,7 +1870,7 @@
       <c r="C7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E7" s="13">
@@ -1921,7 +1908,7 @@
       <c r="C9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="13">
@@ -1941,19 +1928,19 @@
       <c r="B10" s="8">
         <v>2</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>43890</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>43892</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1964,19 +1951,19 @@
       <c r="B11" s="9">
         <v>1</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>43897</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <v>43899</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1990,7 +1977,7 @@
       <c r="C12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="13">
@@ -2007,7 +1994,7 @@
       <c r="C13" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="13">
@@ -2024,7 +2011,7 @@
       <c r="C14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="13">
@@ -2041,7 +2028,7 @@
       <c r="C15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="13">
@@ -2058,7 +2045,7 @@
       <c r="C16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="13">
@@ -2075,7 +2062,7 @@
       <c r="C17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="13">
@@ -2095,7 +2082,7 @@
       <c r="C18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="13">
@@ -2115,7 +2102,7 @@
       <c r="C19" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="13">
@@ -2132,7 +2119,7 @@
       <c r="C20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>83</v>
       </c>
       <c r="E20" s="13">
@@ -2152,7 +2139,7 @@
       <c r="C21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="13">
@@ -2404,7 +2391,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2474,7 +2461,7 @@
         <v>97</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4">
         <v>43900</v>
@@ -2751,7 +2738,7 @@
       <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="13">
@@ -2760,7 +2747,7 @@
       <c r="F2" s="13">
         <v>43886</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2774,7 +2761,7 @@
       <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="13">
@@ -2797,7 +2784,7 @@
       <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="13">
@@ -2820,7 +2807,7 @@
       <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="13">
@@ -2895,7 +2882,7 @@
       <c r="C2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="13">
@@ -2904,7 +2891,7 @@
       <c r="F2" s="13">
         <v>43892</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2918,7 +2905,7 @@
       <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="13">
@@ -2936,7 +2923,7 @@
       <c r="C4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="13">
@@ -2956,7 +2943,7 @@
       <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="13">
@@ -2976,7 +2963,7 @@
       <c r="C6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="13">
@@ -3048,7 +3035,7 @@
       <c r="C2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="13">
@@ -3071,7 +3058,7 @@
       <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="13">
@@ -3142,7 +3129,7 @@
       <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="13">
@@ -3165,7 +3152,7 @@
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="13">
@@ -3182,34 +3169,34 @@
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>43896</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>43898</v>
       </c>
     </row>
     <row r="5" spans="3:6">
       <c r="C5" s="11"/>
-      <c r="D5" s="14"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="3:6">
       <c r="C6" s="11"/>
-      <c r="D6" s="14"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="11"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="13"/>
     </row>
   </sheetData>
@@ -3274,7 +3261,7 @@
       <c r="C2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="13">
@@ -3294,7 +3281,7 @@
       <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="13">
@@ -3314,7 +3301,7 @@
       <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="13">
@@ -3334,7 +3321,7 @@
       <c r="C5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="13">
@@ -3405,7 +3392,7 @@
       <c r="C2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="13">
@@ -3425,7 +3412,7 @@
       <c r="C3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="13">
@@ -3445,7 +3432,7 @@
       <c r="C4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="13">
@@ -3465,7 +3452,7 @@
       <c r="C5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="13">
@@ -3537,7 +3524,7 @@
       <c r="C2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="13">
@@ -3560,7 +3547,7 @@
       <c r="C3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="13">
@@ -3580,7 +3567,7 @@
       <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="13">
@@ -3600,19 +3587,19 @@
       <c r="B5" s="9">
         <v>5</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>43894</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>43895</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3626,7 +3613,7 @@
       <c r="C6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="13">
@@ -3649,7 +3636,7 @@
       <c r="C7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="13">
@@ -3721,7 +3708,7 @@
       <c r="C2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="13">
@@ -3750,7 +3737,7 @@
       <c r="F3" s="13">
         <v>43892</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>55</v>
       </c>
     </row>

--- a/issue-tracking-2020-feb.xlsx
+++ b/issue-tracking-2020-feb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="2" activeTab="11"/>
+    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2-13" sheetId="1" r:id="rId1"/>
@@ -16,21 +16,23 @@
     <sheet name="2020-3-7" sheetId="11" r:id="rId7"/>
     <sheet name="2020-3-4" sheetId="9" r:id="rId8"/>
     <sheet name="2020-2-28" sheetId="5" r:id="rId9"/>
-    <sheet name="2020-3-8" sheetId="12" r:id="rId10"/>
-    <sheet name="2020-3-9" sheetId="13" r:id="rId11"/>
-    <sheet name="2020-3-10" sheetId="14" r:id="rId12"/>
+    <sheet name="2020-3-10" sheetId="14" r:id="rId10"/>
+    <sheet name="2020-3-8" sheetId="12" r:id="rId11"/>
+    <sheet name="2020-3-9" sheetId="13" r:id="rId12"/>
+    <sheet name="2020-3-11" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2020-3-8'!$A$1:$G$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'2020-3-9'!$A$1:$G$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'2020-3-10'!$A$1:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2020-3-10'!$A$1:$G$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'2020-3-8'!$A$1:$G$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'2020-3-9'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2020-3-11'!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>序号</t>
   </si>
@@ -288,6 +290,54 @@
       </rPr>
       <t xml:space="preserve"> to #16</t>
     </r>
+  </si>
+  <si>
+    <t>课程导入文件里“是否精品课程”的值是“精品课程”，因为历史信息的导出就是这个，保持一致比较好。原来用的是“是”，要改成“精品课程”。</t>
+  </si>
+  <si>
+    <t>课程导入时，数据库里的suit_teacher和teacher_ordered应该和excel里的“申报教师”保持一致，而不是“可选教师”，因为历史信息导出的文件里只有”申报教师“，没有”可选教师“（内容是空的）。</t>
+  </si>
+  <si>
+    <t>我把历史导出的可选教师数据跟申报教师写成一致，这样就不需要改导入的代码。
+之后要再整理一下这个导入数据。</t>
+  </si>
+  <si>
+    <t>”课程信息管理“页面上的”非激活课程总数”计数没有把打通课程的去掉。</t>
+  </si>
+  <si>
+    <t>如果有打通课程只算一个？
+是，和激活的一样</t>
+  </si>
+  <si>
+    <t>“编辑课程信息”的时候，如果把平行班从“1”改成“2”，确认之后，数据库里的教师数就会*2；并且之后这门课每次用“编辑课程信息”点开再确认，教师数就会*2。关于平行班和教师数，要注意导入，导出和编辑课程信息窗口的统一。</t>
+  </si>
+  <si>
+    <t>教师个人申报课程的弹窗里最下面有个没有名字并且内容为undefined的框。</t>
+  </si>
+  <si>
+    <t>检查申报结果能显示多少信息？我还没开始申报，检查看只有6条。我又试了一个情况应该报5条，实际只报了4条</t>
+  </si>
+  <si>
+    <t>应该全部显示，原判断条件有误。现在应可以了</t>
+  </si>
+  <si>
+    <t>排课异常，log最后如下“2020-03-10 20:12:32 - &lt;STEP 1 Limitation for teacher list&gt;
+2020-03-10 20:12:32 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:12:32 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:12:32 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:12:32 - 排课异常:u''
+”
+而且检查申报情况是没有异常……其实有一门课没有人申报。我把这门课非激活之后还是异常，显示：
+”
+2020-03-10 20:31:14 - &lt;STEP 1 Limitation for teacher list&gt;
+2020-03-10 20:31:14 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:31:14 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:31:14 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:31:14 - 排课异常:u'\u675c\u5b87'
+“</t>
+  </si>
+  <si>
+    <t>这里可能是跟#70的错误有关系</t>
   </si>
   <si>
     <t>"课程信息管理“页面上如果”备注"是空，就什么都不要显示，不用显示“none“。</t>
@@ -488,80 +538,133 @@
     <t>历史页面导出的非激活位置不对，我把它放到平行班级之后了</t>
   </si>
   <si>
+    <t>“教师信息管理”-》“教务员”-》“申报信息”页面中，列表头“申报完成”改名“申报状态”，内容为空的话显示空，而不是“none“。</t>
+  </si>
+  <si>
+    <t>”历史信息“页面中，选择2019-2020并提交，系统报”获取历史排课信息失败“</t>
+  </si>
+  <si>
+    <t>”历史信息“页面中，如果一门课有多个班级合上，现在只能显示其中的一个班级，打通课程也只能显示两个课程代码下的各一个班级。</t>
+  </si>
+  <si>
+    <t>老师申请撤回申报完成之后，教务员老师看到的申报状态显示”申请取消申报“改成”申请撤回申报完成“</t>
+  </si>
+  <si>
+    <t>“教师信息管理”-》“教师个人”-》“申报课程“页面，当申报了JM的课程后，就无法提交申报完成了。</t>
+  </si>
+  <si>
+    <t>“申报完成"的弹出窗口，要加载老师之前写过的申报说明。</t>
+  </si>
+  <si>
+    <t>在不符合条件的情况，申报完成的简述框可以加载之前写过的理由</t>
+  </si>
+  <si>
+    <t>教师个人的申报页面的”撤回申报“（就是撤回申报完成）的键改叫”撤回申报完成“</t>
+  </si>
+  <si>
+    <t>教师个人的申报页面，那个修改期望学时的弹窗，有一个键叫”close“，改成”关闭“。</t>
+  </si>
+  <si>
+    <t>”教师信息管理“-》”教务员“-》”申报信息“页面中，教师的”状态“显示空和”非激活“</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pen</t>
+    </r>
+  </si>
+  <si>
+    <t>检查教师申报状况的结果好像不多，所有的课都不和要求</t>
+  </si>
+  <si>
     <t>”课程信息管理“、”教师信息管理“-》”教师个人“-》”申报课程“页面左侧导航栏中的学位列表和学科组列表要和实际内容一致。现在发现”法律硕士“改名”JM“之后，点击导航栏提交按键后，所有JM的课程无法显示。</t>
   </si>
   <si>
-    <t>学位和学期用的是页面的固定值，不是动态获取的。只有学科是。需要做么？</t>
-  </si>
-  <si>
-    <t>加载历史信息似乎把course_info和history_info的数据混起来了。当我把step_info删掉（就是说打算开始新的一学年排课），此时进历史信息，选择2019-2020，系统报错说获取历史信息失败。当我开始2020-2021学年的排课并且导入课程之后，今日历史信息，选择2019-2020，出来的历史课程列表，明显可见打通课程里，所有的被打通的法律硕士的课程都是2020-2021学年新导入的课表里的课程。</t>
-  </si>
-  <si>
-    <t>两个位置的表取错了</t>
-  </si>
-  <si>
-    <t>课程导入文件里“是否精品课程”的值是“精品课程”，因为历史信息的导出就是这个，保持一致比较好。原来用的是“是”，要改成“精品课程”。</t>
-  </si>
-  <si>
-    <t>课程导入时，数据库里的suit_teacher和teacher_ordered应该和excel里的“申报教师”保持一致，而不是“可选教师”，因为历史信息导出的文件里只有”申报教师“，没有”可选教师“（内容是空的）。</t>
-  </si>
-  <si>
-    <t>我把历史导出的可选教师数据跟申报教师写成一致，这样就不需要改导入的代码。</t>
+    <r>
+      <t xml:space="preserve">学位和学期用的是页面的固定值，不是动态获取的。只有学科是。需要做么？
+确定现在法律硕士要改写成JM，我们要改成JM，否则filter都filter不出来了。那么另一个问题就是，我是不是要把历史数据表里的都改成JM？不然历史数据查询会有影响，另外之后做报表也会有影响？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目前已经全部把代码里面固定的法律硕士改成JM 数据库内容还需要手动更新。班级信息里面有学位，这个改起来比较麻烦</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">加载历史信息似乎把course_info和history_info的数据混起来了。当我把step_info删掉（就是说打算开始新的一学年排课），此时进历史信息，选择2019-2020，系统报错说获取历史信息失败，出错信息”
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  File "D:\FuDan\CM-master-2020-03-11\CM-master\Info_Manage\views.py", line 3210, in history_search_by_year
+    student_type_relate = CourseInfo.objects.filter(course_id=course_relate)[0].student_type
+  File "D:\FuDan\python27\lib\site-packages\django-1.11.10-py2.7.egg\django\db\models\query.py", line 289, in __getitem__
+    return list(qs)[0]
+“
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当我开始2020-2021学年的排课并且导入课程之后，今日历史信息，选择2019-2020，出来的历史课程列表，明显可见打通课程里，所有的被打通的法律硕士的课程都是2020-2021学年新导入的课表里的课程。</t>
+    </r>
+  </si>
+  <si>
+    <t>历史信息导出的打通课程代码，跟当前排课的应该没有任何关系。
+请先看第一段。</t>
   </si>
   <si>
     <t>课程导入时，把授课教师和备注也带上</t>
   </si>
   <si>
-    <t>”课程信息管理“页面上的”非激活课程总数”计数没有把打通课程的去掉。</t>
-  </si>
-  <si>
-    <t>如果有打通课程只算一个？</t>
-  </si>
-  <si>
-    <t>“编辑课程信息”的时候，如果把平行班从“1”改成“2”，确认之后，数据库里的教师数就会*2；并且之后这门课每次用“编辑课程信息”点开再确认，教师数就会*2。关于平行班和教师数，要注意导入，导出和编辑课程信息窗口的统一。</t>
+    <t>教师个人完成申报的按键会fail</t>
+  </si>
+  <si>
+    <t>需要现场，我本地可以。
+JM引起的，参考#76</t>
+  </si>
+  <si>
+    <t>教师个人申报打通课程，申报完了显示申报成功，但是后台数据库并没有写入，所以刷新后就没有了</t>
+  </si>
+  <si>
+    <t>按我的实验结果，有可能是你申报课程的那个用户没有在TeacherInfo的表里面
+猜想和JM有关。</t>
   </si>
   <si>
     <t>步骤二中申报截止时间设定完之后没有自动刷新这个设定按键。</t>
-  </si>
-  <si>
-    <t>教师个人申报课程的弹窗里最下面有个没有名字并且内容为undefined的框。</t>
-  </si>
-  <si>
-    <t>教师个人完成申报的按键会fail</t>
-  </si>
-  <si>
-    <t>需要现场，我本地可以</t>
-  </si>
-  <si>
-    <t>教师个人申报打通课程，申报完了显示申报成功，但是后台数据库并没有写入，所以刷新后就没有了</t>
-  </si>
-  <si>
-    <t>按我的实验结果，有可能是你申报课程的那个用户没有在TeacherInfo的表里面</t>
-  </si>
-  <si>
-    <t>检查申报结果能显示多少信息？我还没开始申报，检查看只有6条。我又试了一个情况应该报5条，实际只报了4条</t>
-  </si>
-  <si>
-    <t>应该全部显示，原判断条件有误。现在应可以了</t>
-  </si>
-  <si>
-    <t>排课异常，log最后如下“2020-03-10 20:12:32 - &lt;STEP 1 Limitation for teacher list&gt;
-2020-03-10 20:12:32 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
-2020-03-10 20:12:32 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
-2020-03-10 20:12:32 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
-2020-03-10 20:12:32 - 排课异常:u''
-”
-而且检查申报情况是没有异常……其实有一门课没有人申报。我把这门课非激活之后还是异常，显示：
-”
-2020-03-10 20:31:14 - &lt;STEP 1 Limitation for teacher list&gt;
-2020-03-10 20:31:14 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
-2020-03-10 20:31:14 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
-2020-03-10 20:31:14 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
-2020-03-10 20:31:14 - 排课异常:u'\u675c\u5b87'
-“</t>
-  </si>
-  <si>
-    <t>这里可能是跟#70的错误有关系</t>
   </si>
 </sst>
 </file>
@@ -569,12 +672,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,9 +713,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,31 +743,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,6 +781,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -687,20 +827,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,34 +835,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -759,12 +876,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -780,13 +903,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +945,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +975,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,49 +1011,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,31 +1047,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,49 +1083,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,50 +1097,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,6 +1136,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1063,11 +1171,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,10 +1202,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,140 +1214,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1234,22 +1357,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="49" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1267,13 +1399,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1285,13 +1417,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1640,7 +1775,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1652,7 +1787,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1663,16 +1798,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>43874</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="16">
         <v>43886</v>
       </c>
       <c r="G2" t="s">
@@ -1692,13 +1827,13 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>43874</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="16">
         <v>43877</v>
       </c>
       <c r="G3" t="s">
@@ -1713,18 +1848,205 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr filterMode="1">
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="75.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5" spans="1:6">
+      <c r="A2" s="1">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43900</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" spans="1:7">
+      <c r="A3" s="1">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43900</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:7">
+      <c r="A4" s="1">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43900</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43900</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" ht="57" spans="1:5">
+      <c r="A5" s="1">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="3:4">
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:7">
+      <c r="A7" s="1">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43900</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" ht="313.5" spans="1:7">
+      <c r="A8" s="1">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43900</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G8">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="54.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="54.625" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
@@ -1738,7 +2060,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1750,7 +2072,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1761,20 +2083,20 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>43898</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="16">
         <v>43899</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1784,16 +2106,16 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>43898</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="16">
         <v>43899</v>
       </c>
     </row>
@@ -1804,20 +2126,20 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="16">
         <v>43898</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="16">
         <v>43899</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>60</v>
+      <c r="G4" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" ht="42.75" spans="1:6">
@@ -1827,16 +2149,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="16">
         <v>43898</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="16">
         <v>43899</v>
       </c>
     </row>
@@ -1847,16 +2169,16 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="C6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="16">
         <v>43898</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="16">
         <v>43899</v>
       </c>
     </row>
@@ -1867,16 +2189,16 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="C7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="16">
         <v>43898</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" ht="28.5" spans="1:6">
       <c r="A8">
@@ -1885,16 +2207,16 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="16">
         <v>43898</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="16">
         <v>43899</v>
       </c>
     </row>
@@ -1905,66 +2227,66 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="16">
         <v>43898</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="16">
         <v>43899</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" s="8" customFormat="1" ht="141.75" hidden="1" spans="1:7">
-      <c r="A10" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" s="11" customFormat="1" ht="141.75" hidden="1" spans="1:7">
+      <c r="A10" s="11">
         <v>16</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="C10" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="19">
         <v>43890</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="19">
         <v>43892</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" s="9" customFormat="1" ht="71.25" spans="1:7">
-      <c r="A11" s="9">
+      <c r="G10" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" s="12" customFormat="1" ht="71.25" spans="1:7">
+      <c r="A11" s="12">
         <v>33</v>
       </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="22">
         <v>43897</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="22">
         <v>43899</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>72</v>
+      <c r="G11" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" ht="28.5" hidden="1" spans="1:5">
@@ -1974,13 +2296,13 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="C12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="16">
         <v>43898</v>
       </c>
     </row>
@@ -1991,13 +2313,13 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="16">
         <v>43898</v>
       </c>
     </row>
@@ -2008,13 +2330,13 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="C14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="16">
         <v>43898</v>
       </c>
     </row>
@@ -2025,13 +2347,13 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="16">
         <v>43898</v>
       </c>
     </row>
@@ -2042,13 +2364,13 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="16">
         <v>43898</v>
       </c>
     </row>
@@ -2059,17 +2381,17 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="C17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="16">
         <v>43898</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" ht="28.5" hidden="1" spans="1:7">
@@ -2079,17 +2401,17 @@
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="C18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="16">
         <v>43898</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" ht="42.75" spans="1:5">
@@ -2099,13 +2421,13 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="16">
         <v>43898</v>
       </c>
     </row>
@@ -2116,17 +2438,17 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="C20" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="16">
         <v>43898</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" ht="57" spans="1:7">
@@ -2136,17 +2458,17 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="C21" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="16">
         <v>43898</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2163,13 +2485,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2215,15 +2537,15 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="4">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5">
         <v>43898</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" ht="28.5" spans="1:6">
       <c r="A3" s="1">
@@ -2233,15 +2555,15 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="4">
+        <v>74</v>
+      </c>
+      <c r="E3" s="5">
         <v>43898</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
@@ -2251,19 +2573,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>43898</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>43900</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" ht="57" spans="1:6">
@@ -2274,15 +2596,15 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>43898</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>43900</v>
       </c>
     </row>
@@ -2294,15 +2616,15 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>43898</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>43899</v>
       </c>
     </row>
@@ -2314,68 +2636,68 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>43898</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>43900</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="4"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="5:5">
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="3:7">
-      <c r="C10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="3:7">
-      <c r="C11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="3:7">
+      <c r="C10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" s="8" customFormat="1" spans="3:7">
+      <c r="C11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="4"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="4"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="4"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="4"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="5:5">
-      <c r="E16" s="4"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="4"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="4"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="4"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="4"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="4"/>
+      <c r="E21" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7"/>
@@ -2385,24 +2707,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="71.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="75.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2429,248 +2750,315 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="57" spans="1:7">
+    <row r="2" ht="28.5" hidden="1" spans="1:6">
       <c r="A2" s="1">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43901</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" ht="28.5" spans="1:5">
+      <c r="A3" s="1">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:6">
+      <c r="A4" s="1">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43901</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:6">
+      <c r="A5" s="1">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43901</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:5">
+      <c r="A6" s="1">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43901</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43901</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:6">
+      <c r="A8" s="1">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43901</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="1:6">
+      <c r="A9" s="1">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43901</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" hidden="1" spans="1:5">
+      <c r="A10" s="1">
+        <v>80</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>81</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5">
+        <v>43901</v>
+      </c>
+      <c r="F11" s="5">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="12" ht="85.5" spans="1:7">
+      <c r="A12" s="1">
         <v>59</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5">
         <v>43900</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" ht="99.75" spans="1:7">
-      <c r="A3" s="1">
+      <c r="F12" s="5"/>
+      <c r="G12" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" ht="199.5" spans="1:7">
+      <c r="A13" s="1">
         <v>61</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="5">
         <v>43900</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" ht="42.75" spans="1:6">
-      <c r="A4" s="1">
-        <v>62</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="G13" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" hidden="1" customHeight="1" spans="1:5">
+      <c r="A14" s="1">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="5">
         <v>43900</v>
       </c>
-      <c r="F4" s="4">
+    </row>
+    <row r="15" ht="28.5" spans="1:7">
+      <c r="A15" s="1">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="5">
         <v>43900</v>
       </c>
-    </row>
-    <row r="5" ht="42.75" spans="1:7">
-      <c r="A5" s="1">
-        <v>63</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="G15" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:7">
+      <c r="A16" s="1">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="5">
         <v>43900</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" hidden="1" spans="1:5">
-      <c r="A6" s="1">
-        <v>64</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="G16" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:5">
+      <c r="A17" s="1">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="5">
         <v>43900</v>
       </c>
     </row>
-    <row r="7" ht="28.5" spans="1:7">
-      <c r="A7" s="1">
-        <v>65</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4">
-        <v>43900</v>
-      </c>
-      <c r="F7" s="4">
-        <v>43900</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" ht="57" spans="1:5">
-      <c r="A8" s="1">
-        <v>66</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>67</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" hidden="1" spans="3:3">
-      <c r="C10" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>68</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="4">
-        <v>43900</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:7">
-      <c r="A12" s="1">
-        <v>69</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="4">
-        <v>43900</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:7">
-      <c r="A13" s="1">
-        <v>70</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="4">
-        <v>43900</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" ht="399" spans="1:7">
-      <c r="A14" s="1">
-        <v>71</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="4">
-        <v>43900</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G14">
+  <autoFilter ref="A1:G17">
     <filterColumn colId="1">
       <customFilters>
         <customFilter operator="equal" val="1"/>
@@ -2698,7 +3086,7 @@
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="50.25" style="10" customWidth="1"/>
+    <col min="3" max="3" width="50.25" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="54.375" customWidth="1"/>
@@ -2712,7 +3100,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2724,7 +3112,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2735,19 +3123,19 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>43882</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="16">
         <v>43886</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2758,19 +3146,19 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>43882</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="16">
         <v>43892</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2781,16 +3169,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="16">
         <v>43882</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="16">
         <v>43886</v>
       </c>
       <c r="G4" t="s">
@@ -2804,16 +3192,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="16">
         <v>43882</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="16">
         <v>43886</v>
       </c>
       <c r="G5" t="s">
@@ -2842,7 +3230,7 @@
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="13" customWidth="1"/>
     <col min="4" max="4" width="6.625" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
@@ -2856,7 +3244,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2868,7 +3256,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2879,19 +3267,19 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>43888</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="16">
         <v>43892</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2902,16 +3290,16 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>43888</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" ht="28.5" spans="1:6">
       <c r="A4">
@@ -2920,16 +3308,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="16">
         <v>43888</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="16">
         <v>43892</v>
       </c>
     </row>
@@ -2940,16 +3328,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="16">
         <v>43888</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="16">
         <v>43892</v>
       </c>
     </row>
@@ -2960,16 +3348,16 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="16">
         <v>43888</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="16">
         <v>43892</v>
       </c>
     </row>
@@ -2995,7 +3383,7 @@
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="13" customWidth="1"/>
     <col min="4" max="4" width="5.625" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
@@ -3009,7 +3397,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3021,7 +3409,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3032,16 +3420,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>43891</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="16">
         <v>43893</v>
       </c>
       <c r="G2" t="s">
@@ -3055,16 +3443,16 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>43891</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="16">
         <v>43893</v>
       </c>
     </row>
@@ -3090,7 +3478,7 @@
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="50.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="50.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
@@ -3103,7 +3491,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3115,7 +3503,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3126,16 +3514,16 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>43896</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="16">
         <v>43898</v>
       </c>
       <c r="G2" t="s">
@@ -3149,55 +3537,55 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>43896</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="16">
         <v>43898</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="185.25" spans="1:6">
-      <c r="A4" s="9">
+    <row r="4" s="12" customFormat="1" ht="185.25" spans="1:6">
+      <c r="A4" s="12">
         <v>29</v>
       </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="22">
         <v>43896</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="22">
         <v>43898</v>
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3221,7 +3609,7 @@
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="3" width="49.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="49.125" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
@@ -3235,7 +3623,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3247,7 +3635,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3258,16 +3646,16 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>43890</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="16">
         <v>43893</v>
       </c>
     </row>
@@ -3278,16 +3666,16 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>43870</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="16">
         <v>43892</v>
       </c>
     </row>
@@ -3298,16 +3686,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="16">
         <v>43890</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="16">
         <v>43893</v>
       </c>
     </row>
@@ -3318,16 +3706,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="16">
         <v>43890</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="16">
         <v>43893</v>
       </c>
     </row>
@@ -3353,7 +3741,7 @@
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="50.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="50.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
@@ -3366,7 +3754,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3378,7 +3766,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3389,16 +3777,16 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>43897</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="16">
         <v>43898</v>
       </c>
     </row>
@@ -3409,16 +3797,16 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>43897</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="16">
         <v>43898</v>
       </c>
     </row>
@@ -3429,16 +3817,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="16">
         <v>43897</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="16">
         <v>43898</v>
       </c>
     </row>
@@ -3449,16 +3837,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="16">
         <v>43897</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="16">
         <v>43898</v>
       </c>
     </row>
@@ -3484,7 +3872,7 @@
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="13" customWidth="1"/>
     <col min="4" max="4" width="5.625" customWidth="1"/>
     <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="6" max="6" width="32.125" customWidth="1"/>
@@ -3498,7 +3886,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3510,7 +3898,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3521,16 +3909,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>43894</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="16">
         <v>43895</v>
       </c>
       <c r="G2" t="s">
@@ -3544,16 +3932,16 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>43894</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="16">
         <v>43895</v>
       </c>
     </row>
@@ -3564,42 +3952,42 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="16">
         <v>43894</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="16">
         <v>43895</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="71.25" spans="1:7">
-      <c r="A5" s="9">
+    <row r="5" s="12" customFormat="1" ht="71.25" spans="1:7">
+      <c r="A5" s="12">
         <v>24</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="12">
         <v>5</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="22">
         <v>43894</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="22">
         <v>43895</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="20" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3610,16 +3998,16 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="16">
         <v>43894</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="16">
         <v>43895</v>
       </c>
       <c r="G6" t="s">
@@ -3633,13 +4021,13 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="16">
         <v>43894</v>
       </c>
       <c r="G7" t="s">
@@ -3668,7 +4056,7 @@
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="13" customWidth="1"/>
     <col min="4" max="4" width="5.625" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
@@ -3682,7 +4070,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3694,7 +4082,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3705,13 +4093,13 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>43889</v>
       </c>
       <c r="G2" t="s">
@@ -3725,19 +4113,19 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>43889</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="16">
         <v>43892</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="15" t="s">
         <v>55</v>
       </c>
     </row>

--- a/issue-tracking-2020-feb.xlsx
+++ b/issue-tracking-2020-feb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="3" activeTab="12"/>
+    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2-13" sheetId="1" r:id="rId1"/>
@@ -12,27 +12,31 @@
     <sheet name="2020-2-27" sheetId="3" r:id="rId3"/>
     <sheet name="2020-3-1" sheetId="7" r:id="rId4"/>
     <sheet name="2020-3-6" sheetId="10" r:id="rId5"/>
-    <sheet name="2020-2-29" sheetId="6" r:id="rId6"/>
-    <sheet name="2020-3-7" sheetId="11" r:id="rId7"/>
-    <sheet name="2020-3-4" sheetId="9" r:id="rId8"/>
-    <sheet name="2020-2-28" sheetId="5" r:id="rId9"/>
-    <sheet name="2020-3-10" sheetId="14" r:id="rId10"/>
-    <sheet name="2020-3-8" sheetId="12" r:id="rId11"/>
-    <sheet name="2020-3-9" sheetId="13" r:id="rId12"/>
+    <sheet name="2020-2-28" sheetId="5" r:id="rId6"/>
+    <sheet name="2020-2-29" sheetId="6" r:id="rId7"/>
+    <sheet name="2020-3-7" sheetId="11" r:id="rId8"/>
+    <sheet name="2020-3-4" sheetId="9" r:id="rId9"/>
+    <sheet name="2020-3-8" sheetId="12" r:id="rId10"/>
+    <sheet name="2020-3-9" sheetId="13" r:id="rId11"/>
+    <sheet name="2020-3-10" sheetId="14" r:id="rId12"/>
     <sheet name="2020-3-11" sheetId="15" r:id="rId13"/>
+    <sheet name="2020-3-11 (2)" sheetId="17" r:id="rId14"/>
+    <sheet name="2020-3-12" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2020-3-10'!$A$1:$G$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'2020-3-8'!$A$1:$G$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'2020-3-9'!$A$1:$G$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2020-3-11'!$A$1:$G$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2020-3-8'!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'2020-3-9'!$A$1:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'2020-3-10'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2020-3-11'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'2020-3-11 (2)'!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'2020-3-12'!$A$1:$G$21</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>序号</t>
   </si>
@@ -157,6 +161,29 @@
     </r>
   </si>
   <si>
+    <t>我把LAWS130023的授课老师从“许多奇”改成“陈力”（未申报老师），并且批准微调之后，到“课程信息管理”页面查看，LAWS130023的授课老师显示“陈力”（应该显示“陈力（未申报）”）；而它的打通课程JM630041的授课老师显示的是“陈力（未申报）”（正确）。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>related</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to #16</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -260,16 +287,31 @@
     <t>是我搞错了：（</t>
   </si>
   <si>
-    <t>问题：我们现在对于打通课程代码，如果在“课程信息管理页面”中更新了一条课程的相关信息，和它关联的打通课程对应的信息是否会同步更新？如果没有实现这个，我们先记录着，可以之后完善，现在可以和老师说明要求他们手动同步。</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>不会同步</t>
-  </si>
-  <si>
-    <t>我把LAWS130023的授课老师从“许多奇”改成“陈力”（未申报老师），并且批准微调之后，到“课程信息管理”页面查看，LAWS130023的授课老师显示“陈力”（应该显示“陈力（未申报）”）；而它的打通课程JM630041的授课老师显示的是“陈力（未申报）”（正确）。</t>
+    <t>"课程信息管理“页面上如果”备注"是空，就什么都不要显示，不用显示“none“。</t>
+  </si>
+  <si>
+    <t>所有的notes都处理了</t>
+  </si>
+  <si>
+    <t>“教师信息管理”-》“主管领导”-》“微调信息”改成“微调审批”</t>
+  </si>
+  <si>
+    <t>“教师信息管理”-》“主管领导”-》“微调信息”页面中，”自动分配教师“改成”原授课教师“。并且原授课教师如果是未申报教师需要标注”（未申报）“标识。</t>
+  </si>
+  <si>
+    <t>请注意#16，”教务员“-》”微调信息“页面中的原授课教师，如果是未申报教师也需要标注”（未申报）“标识。</t>
+  </si>
+  <si>
+    <t>“教师信息管理”-》“主管领导”-》“微调信息”页面中，批准微调和驳回微调的弹窗中，原授课教师如果是未申报教师要标注“（未申报）”标识。</t>
+  </si>
+  <si>
+    <t>”编辑课程信息“的弹窗中，如果后台数据库中对应课程的notes非空，此处的“备注”需要应用相应内容。</t>
+  </si>
+  <si>
+    <t>“教师信息管理”-》“教师个人”页面中，左侧导航栏在“教师个人”下给两个链接，一个是“申报课程”，一个是“排课结果”。默认显示“申报课程”页面，如果在排课结果锁定之前点击“排课结果”，页面显示信息“排课还未结束，请老师耐心等待结果。“。排课结果锁定之后老师进入”排课结果“查看，可以看到自己被分配到的课程。显示方法如同申报课程的页面，打通课程合并显示，只显示激活课程（就是原来隐含的排课结果锁定之后，教师个人登录系统会默认看到自己的排课结果，这个放到”排课结果“下面，这样会比较明确）。</t>
+  </si>
+  <si>
+    <t>需要验证</t>
   </si>
   <si>
     <r>
@@ -279,7 +321,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>related</t>
+      <t>”历史信息“进入的默认页面显示最新的学年历史数据，其中”是否精品课程“会有显示”n</t>
     </r>
     <r>
       <rPr>
@@ -288,92 +330,8 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> to #16</t>
+      <t>one"，不要显示"none"。</t>
     </r>
-  </si>
-  <si>
-    <t>课程导入文件里“是否精品课程”的值是“精品课程”，因为历史信息的导出就是这个，保持一致比较好。原来用的是“是”，要改成“精品课程”。</t>
-  </si>
-  <si>
-    <t>课程导入时，数据库里的suit_teacher和teacher_ordered应该和excel里的“申报教师”保持一致，而不是“可选教师”，因为历史信息导出的文件里只有”申报教师“，没有”可选教师“（内容是空的）。</t>
-  </si>
-  <si>
-    <t>我把历史导出的可选教师数据跟申报教师写成一致，这样就不需要改导入的代码。
-之后要再整理一下这个导入数据。</t>
-  </si>
-  <si>
-    <t>”课程信息管理“页面上的”非激活课程总数”计数没有把打通课程的去掉。</t>
-  </si>
-  <si>
-    <t>如果有打通课程只算一个？
-是，和激活的一样</t>
-  </si>
-  <si>
-    <t>“编辑课程信息”的时候，如果把平行班从“1”改成“2”，确认之后，数据库里的教师数就会*2；并且之后这门课每次用“编辑课程信息”点开再确认，教师数就会*2。关于平行班和教师数，要注意导入，导出和编辑课程信息窗口的统一。</t>
-  </si>
-  <si>
-    <t>教师个人申报课程的弹窗里最下面有个没有名字并且内容为undefined的框。</t>
-  </si>
-  <si>
-    <t>检查申报结果能显示多少信息？我还没开始申报，检查看只有6条。我又试了一个情况应该报5条，实际只报了4条</t>
-  </si>
-  <si>
-    <t>应该全部显示，原判断条件有误。现在应可以了</t>
-  </si>
-  <si>
-    <t>排课异常，log最后如下“2020-03-10 20:12:32 - &lt;STEP 1 Limitation for teacher list&gt;
-2020-03-10 20:12:32 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
-2020-03-10 20:12:32 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
-2020-03-10 20:12:32 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
-2020-03-10 20:12:32 - 排课异常:u''
-”
-而且检查申报情况是没有异常……其实有一门课没有人申报。我把这门课非激活之后还是异常，显示：
-”
-2020-03-10 20:31:14 - &lt;STEP 1 Limitation for teacher list&gt;
-2020-03-10 20:31:14 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
-2020-03-10 20:31:14 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
-2020-03-10 20:31:14 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
-2020-03-10 20:31:14 - 排课异常:u'\u675c\u5b87'
-“</t>
-  </si>
-  <si>
-    <t>这里可能是跟#70的错误有关系</t>
-  </si>
-  <si>
-    <t>"课程信息管理“页面上如果”备注"是空，就什么都不要显示，不用显示“none“。</t>
-  </si>
-  <si>
-    <t>所有的notes都处理了</t>
-  </si>
-  <si>
-    <t>“教师信息管理”-》“主管领导”-》“微调信息”改成“微调审批”</t>
-  </si>
-  <si>
-    <t>“教师信息管理”-》“主管领导”-》“微调信息”页面中，”自动分配教师“改成”原授课教师“。并且原授课教师如果是未申报教师需要标注”（未申报）“标识。</t>
-  </si>
-  <si>
-    <t>请注意#16，”教务员“-》”微调信息“页面中的原授课教师，如果是未申报教师也需要标注”（未申报）“标识。</t>
-  </si>
-  <si>
-    <t>“教师信息管理”-》“主管领导”-》“微调信息”页面中，批准微调和驳回微调的弹窗中，原授课教师如果是未申报教师要标注“（未申报）”标识。</t>
-  </si>
-  <si>
-    <t>考虑到我们还没有废除”添加课程信息“按键，”添加课程信息“弹窗里的”状态“也要用下拉菜单选择，内容是”激活“/”非激活“。</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>”添加课程信息“的弹窗中，如果是已经存在的课程代码，”打通课程代码“，”是否精品课程“，”状态“，”平行班级数“应该都是不可更改内容。</t>
-  </si>
-  <si>
-    <t>”编辑课程信息“的弹窗中，如果后台数据库中对应课程的notes非空，此处的“备注”需要应用相应内容。</t>
-  </si>
-  <si>
-    <t>“教师信息管理”-》“教师个人”页面中，左侧导航栏在“教师个人”下给两个链接，一个是“申报课程”，一个是“排课结果”。默认显示“申报课程”页面，如果在排课结果锁定之前点击“排课结果”，页面显示信息“排课还未结束，请老师耐心等待结果。“。排课结果锁定之后老师进入”排课结果“查看，可以看到自己被分配到的课程。显示方法如同申报课程的页面，打通课程合并显示，只显示激活课程（就是原来隐含的排课结果锁定之后，教师个人登录系统会默认看到自己的排课结果，这个放到”排课结果“下面，这样会比较明确）。</t>
-  </si>
-  <si>
-    <t>需要验证</t>
   </si>
   <si>
     <r>
@@ -426,9 +384,6 @@
     </r>
   </si>
   <si>
-    <t>re-open</t>
-  </si>
-  <si>
     <t>”教师信息管理“-》”教务员“-》”微调信息“页面中，”原授课教师“如果是未申报教师要求显示“（未申报）”标识。这个还没有做。</t>
   </si>
   <si>
@@ -438,69 +393,13 @@
     <t>编辑课程信息窗口中，“状态”的填写应该是下拉菜单选择，选择内容是“激活”/“非激活”，不是“0”/“1”。如果选中的课程原状态栏是“非激活”，也要有下拉菜单选择可以选可以改这个值。具体格式参考“学期”。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”历史信息“进入的默认页面显示最新的学年历史数据，其中”是否精品课程“会有显示”n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>one"，不要显示"none"。</t>
-    </r>
-  </si>
-  <si>
     <t>”课程信息管理“页面进入的时候默认页面”申报教师”显示的是数据库中的“teacher_ordered”，当左侧导航栏提交过之后，”申报教师“就会显示数据库中的”suit_teacher“</t>
   </si>
   <si>
-    <t>”课程信息管理“和“历史信息”页面进入的时候默认显示的”学时“和”难度“都是带一位小数的格式（如36.0），当左侧导航栏提交过之后，都会显示整数格式（如36）。请统一一下</t>
-  </si>
-  <si>
     <t>”课程信息管理“（包括导出数据）和”历史信息“（包括导出数据）页面中，授课教师凡是一人以上的，最后一个授课教师都会被标识成（未申报），即使他申报过这门课。</t>
   </si>
   <si>
-    <t>”历史信息“导出的排课报表貌似数据有误，我核对了头上三个，每个老师都少算一门课。</t>
-  </si>
-  <si>
-    <t>"教师信息管理”-》“教务员”-》“申报信息”的导出文件需要做成教师信息的导入文件格式。现在的主要问题是没有性别这一列。</t>
-  </si>
-  <si>
-    <t>需要重新做导出</t>
-  </si>
-  <si>
-    <t>“教师信息管理”-》“教务员”-》“申报信息”的导出文件，文件名改成“教师信息”</t>
-  </si>
-  <si>
-    <t>如果一门课程原来是非激活课程，我现在想先激活它，然后用微调给它分配一个老师，现在的系统是不可以微调没有授课教师的课程的。需要有这个功能。</t>
-  </si>
-  <si>
-    <t>如果有一门课程原来是激活状态，并且分配了授课老师了，现在要非激活，请问原来这个授课老师的已分配学时和难度会相应更新吗？</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>激活改成非激活不会更新</t>
-  </si>
-  <si>
-    <t>如果有一门课程原来是激活状态，并且分配了一位授课老师了，现在要再增加一位授课老师（或原来是两位，现在要减少到一位），请问原来这个/些授课老师的已分配学时和难度会相应更新吗？</t>
-  </si>
-  <si>
-    <t>微调那边对更改过的教师和允许教师数会做检查，数目不对不会更改。如果改完允许教师数是符合的，原教师会和新的授课老师难度学时都会更新，但是更新的值是课程的学时/原教师数。这里原教师数根据 #50 做了异常处理</t>
-  </si>
-  <si>
     <t>“历史信息”导出排课结果，导出的workbook里面的那张worksheet的名字必须是“课程信息”，因为之后导入课程的时候，系统会去找那张叫“课程信息”的worksheet。</t>
-  </si>
-  <si>
-    <t>上一学年排课结束之后，要提供一个按钮，可以开始新的一学年排课。需要清掉step_info,course_info,adjust_info,teacher</t>
   </si>
   <si>
     <t>“课程信息管理”页面，“删除改行”按钮失效</t>
@@ -538,7 +437,45 @@
     <t>历史页面导出的非激活位置不对，我把它放到平行班级之后了</t>
   </si>
   <si>
-    <t>“教师信息管理”-》“教务员”-》“申报信息”页面中，列表头“申报完成”改名“申报状态”，内容为空的话显示空，而不是“none“。</t>
+    <t>课程导入文件里“是否精品课程”的值是“精品课程”，因为历史信息的导出就是这个，保持一致比较好。原来用的是“是”，要改成“精品课程”。</t>
+  </si>
+  <si>
+    <t>”课程信息管理“页面上的”非激活课程总数”计数没有把打通课程的去掉。</t>
+  </si>
+  <si>
+    <t>如果有打通课程只算一个？
+是，和激活的一样</t>
+  </si>
+  <si>
+    <t>“编辑课程信息”的时候，如果把平行班从“1”改成“2”，确认之后，数据库里的教师数就会*2；并且之后这门课每次用“编辑课程信息”点开再确认，教师数就会*2。关于平行班和教师数，要注意导入，导出和编辑课程信息窗口的统一。</t>
+  </si>
+  <si>
+    <t>教师个人申报课程的弹窗里最下面有个没有名字并且内容为undefined的框。</t>
+  </si>
+  <si>
+    <t>检查申报结果能显示多少信息？我还没开始申报，检查看只有6条。我又试了一个情况应该报5条，实际只报了4条</t>
+  </si>
+  <si>
+    <t>应该全部显示，原判断条件有误。现在应可以了</t>
+  </si>
+  <si>
+    <t>排课异常，log最后如下“2020-03-10 20:12:32 - &lt;STEP 1 Limitation for teacher list&gt;
+2020-03-10 20:12:32 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:12:32 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:12:32 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:12:32 - 排课异常:u''
+”
+而且检查申报情况是没有异常……其实有一门课没有人申报。我把这门课非激活之后还是异常，显示：
+”
+2020-03-10 20:31:14 - &lt;STEP 1 Limitation for teacher list&gt;
+2020-03-10 20:31:14 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:31:14 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:31:14 - 课程：CourseInfo object 平行班级情况下，如果申报认识不满足最高要求，但是大于最低要求，会先行安排
+2020-03-10 20:31:14 - 排课异常:u'\u675c\u5b87'
+“</t>
+  </si>
+  <si>
+    <t>这里可能是跟#70的错误有关系</t>
   </si>
   <si>
     <t>”历史信息“页面中，选择2019-2020并提交，系统报”获取历史排课信息失败“</t>
@@ -556,7 +493,8 @@
     <t>“申报完成"的弹出窗口，要加载老师之前写过的申报说明。</t>
   </si>
   <si>
-    <t>在不符合条件的情况，申报完成的简述框可以加载之前写过的理由</t>
+    <t>在不符合条件的情况，申报完成的简述框可以加载之前写过的理由
+貌似规则没那么简单。</t>
   </si>
   <si>
     <t>教师个人的申报页面的”撤回申报“（就是撤回申报完成）的键改叫”撤回申报完成“</t>
@@ -565,7 +503,10 @@
     <t>教师个人的申报页面，那个修改期望学时的弹窗，有一个键叫”close“，改成”关闭“。</t>
   </si>
   <si>
-    <t>”教师信息管理“-》”教务员“-》”申报信息“页面中，教师的”状态“显示空和”非激活“</t>
+    <t>检查教师申报状况的结果好像不多，所有的课都不和要求</t>
+  </si>
+  <si>
+    <t>”课程信息管理“、”教师信息管理“-》”教师个人“-》”申报课程“页面左侧导航栏中的学位列表和学科组列表要和实际内容一致。现在发现”法律硕士“改名”JM“之后，点击导航栏提交按键后，所有JM的课程无法显示。</t>
   </si>
   <si>
     <r>
@@ -575,26 +516,6 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pen</t>
-    </r>
-  </si>
-  <si>
-    <t>检查教师申报状况的结果好像不多，所有的课都不和要求</t>
-  </si>
-  <si>
-    <t>”课程信息管理“、”教师信息管理“-》”教师个人“-》”申报课程“页面左侧导航栏中的学位列表和学科组列表要和实际内容一致。现在发现”法律硕士“改名”JM“之后，点击导航栏提交按键后，所有JM的课程无法显示。</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">学位和学期用的是页面的固定值，不是动态获取的。只有学科是。需要做么？
 确定现在法律硕士要改写成JM，我们要改成JM，否则filter都filter不出来了。那么另一个问题就是，我是不是要把历史数据表里的都改成JM？不然历史数据查询会有影响，另外之后做报表也会有影响？
 </t>
@@ -603,6 +524,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
       <t>目前已经全部把代码里面固定的法律硕士改成JM 数据库内容还需要手动更新。班级信息里面有学位，这个改起来比较麻烦</t>
@@ -637,6 +559,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
       <t>当我开始2020-2021学年的排课并且导入课程之后，今日历史信息，选择2019-2020，出来的历史课程列表，明显可见打通课程里，所有的被打通的法律硕士的课程都是2020-2021学年新导入的课表里的课程。</t>
@@ -647,9 +570,6 @@
 请先看第一段。</t>
   </si>
   <si>
-    <t>课程导入时，把授课教师和备注也带上</t>
-  </si>
-  <si>
     <t>教师个人完成申报的按键会fail</t>
   </si>
   <si>
@@ -664,7 +584,207 @@
 猜想和JM有关。</t>
   </si>
   <si>
+    <t>“教师信息管理”-》“教务员”-》“申报信息”页面中，列表头“申报完成”改名“申报状态”，内容为空的话显示空，而不是“none“。</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>”教师信息管理“-》”教务员“-》”申报信息“页面中，教师的”状态“显示空和”非激活“</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pen</t>
+    </r>
+  </si>
+  <si>
+    <t>课程导入时，把授课教师和备注也带上</t>
+  </si>
+  <si>
     <t>步骤二中申报截止时间设定完之后没有自动刷新这个设定按键。</t>
+  </si>
+  <si>
+    <t>re-open</t>
+  </si>
+  <si>
+    <t>考虑到我们还没有废除”添加课程信息“按键，”添加课程信息“弹窗里的”状态“也要用下拉菜单选择，内容是”激活“/”非激活“。</t>
+  </si>
+  <si>
+    <t>”添加课程信息“的弹窗中，如果是已经存在的课程代码，”打通课程代码“，”是否精品课程“，”状态“，”平行班级数“应该都是不可更改内容。</t>
+  </si>
+  <si>
+    <t>”课程信息管理“和“历史信息”页面进入的时候默认显示的”学时“和”难度“都是带一位小数的格式（如36.0），当左侧导航栏提交过之后，都会显示整数格式（如36）。请统一一下</t>
+  </si>
+  <si>
+    <t>"教师信息管理”-》“教务员”-》“申报信息”的导出文件需要做成教师信息的导入文件格式。现在的主要问题是没有性别这一列。</t>
+  </si>
+  <si>
+    <t>需要重新做导出</t>
+  </si>
+  <si>
+    <t>“教师信息管理”-》“教务员”-》“申报信息”的导出文件，文件名改成“教师信息”</t>
+  </si>
+  <si>
+    <t>如果有一门课程原来是激活状态，并且分配了授课老师了，现在要非激活，请问原来这个授课老师的已分配学时和难度会相应更新吗？</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>激活改成非激活不会更新</t>
+  </si>
+  <si>
+    <t>如果有一门课程原来是激活状态，并且分配了一位授课老师了，现在要再增加一位授课老师（或原来是两位，现在要减少到一位），请问原来这个/些授课老师的已分配学时和难度会相应更新吗？</t>
+  </si>
+  <si>
+    <t>微调那边对更改过的教师和允许教师数会做检查，数目不对不会更改。如果改完允许教师数是符合的，原教师会和新的授课老师难度学时都会更新，但是更新的值是课程的学时/原教师数。这里原教师数根据 #50 做了异常处理</t>
+  </si>
+  <si>
+    <t>上一学年排课结束之后，要提供一个按钮，可以开始新的一学年排课。需要清掉step_info,course_info,adjust_info,teacher</t>
+  </si>
+  <si>
+    <t>课程导入时，数据库里的suit_teacher和teacher_ordered应该和excel里的“申报教师”保持一致，而不是“可选教师”，因为历史信息导出的文件里只有”申报教师“，没有”可选教师“（内容是空的）。</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>我把历史导出的可选教师数据跟申报教师写成一致，这样就不需要改导入的代码。
+之后要再整理一下这个导入数据。</t>
+  </si>
+  <si>
+    <t>问题：我们现在对于打通课程代码，如果在“课程信息管理页面”中更新了一条课程的相关信息，和它关联的打通课程对应的信息是否会同步更新？如果没有实现这个，我们先记录着，可以之后完善，现在可以和老师说明要求他们手动同步。</t>
+  </si>
+  <si>
+    <t>不会同步</t>
+  </si>
+  <si>
+    <t>对于老师申报课程和撤销申报课程，申报完成和撤销申报完成，教务员老师批准撤销申报完成，日志文件有记录一些数据，但没有清楚的记录这些动作是什么。</t>
+  </si>
+  <si>
+    <t>教师个人撤回申报完成的弹窗，title改成”确认撤销申报完成“</t>
+  </si>
+  <si>
+    <t>”教师信息管理“-》”教师个人“-》”申报课程“页面中，取消申报的弹窗里最下面有个无名框。</t>
+  </si>
+  <si>
+    <t>check_teacher_apply_status中，views.py line 932：
+第一个检查教师人数应该是：
+if teacher_count &lt; teacher_limit_final and teacher_count &gt; teacher_limit_basic&gt;=teacher_limit_basic：
+此处应该是&gt;=teacher_limit_basic</t>
+  </si>
+  <si>
+    <t>要算是等于。</t>
+  </si>
+  <si>
+    <t>balance_for_high_degree中，在获取all_teachers之后，要额外检查平行班的情况：
+all_teachers = int(eachCourse.allow_teachers)
+# 平行课程的教师数要乘以平行班数
+            if eachCourse.course_parallel &gt; 1:
+                all_teachers = int(eachCourse.allow_teachers) *int(eachCourse.course_parallel)</t>
+  </si>
+  <si>
+    <t>对的。对于排课来说，今年最大的区别就是平行班级的教师数，已经从原来的写在allow_teacher变成要乘平行班级数</t>
+  </si>
+  <si>
+    <t>步骤三排课结束后”获得排课结果“按钮实际导出的是统计信息。</t>
+  </si>
+  <si>
+    <t>”历史信息“页面上的按钮”排课报表“改名”统计信息“</t>
+  </si>
+  <si>
+    <t>精品课程内容变多了，有校级精品课程，市级精品课程。我们的导入，课程编辑，和各处的加载显示要改变。</t>
+  </si>
+  <si>
+    <t>微调的弹窗里没有平行班级数显示，如果授课人数要求是2*2，系统却无法接受4个老师。</t>
+  </si>
+  <si>
+    <t>原来的代码是会强制检查 = allow_teacher. 我现在改成小于allow_teacher再报错</t>
+  </si>
+  <si>
+    <t>info_manage/static/info_manage/info_manage_leader.js line248:这里是不是应该是“批准微调异常”？</t>
+  </si>
+  <si>
+    <t>views.py里面teacher_approve_teacher_adjust function里更新老师的已分配学时和难度是要考虑平行课程的course_hour和course_degree是按照平行班翻倍之后，再根据授课老师人数平分的。Line223要改成:
+course_hour = (search_result[0].course_hour * int(search_result[0].course_parallel)) / (len(final_teacher_list) if final_teacher_list else 1)
+            course_degree = (search_result[0].course_degree * int(search_result[0].course_parallel)) / (len(final_teacher_list if final_teacher_list else 1))</t>
+  </si>
+  <si>
+    <t>可以，我原来是以为course_hour已经是最终的数字。</t>
+  </si>
+  <si>
+    <t>“历史信息"的导出排课报表中，重复计算了打通课程的学时，难度和总授课数。</t>
+  </si>
+  <si>
+    <t>改成只算本科</t>
+  </si>
+  <si>
+    <t>”历史信息“导出的排课报表貌似数据有误，我核对了头上三个，每个老师都少算一门课。</t>
+  </si>
+  <si>
+    <t>少一个的问题应该已经解决了啊。本地是对的。</t>
+  </si>
+  <si>
+    <t>微调不可以换非激活的老师上课。（可以让非激活的老师搜索失败）。现在的结果是换非激活的老师上课，会在批准微调的时候报错，但是微调申请仍旧会显示”已批准“，而课程信息和教师信息都不会更新。</t>
+  </si>
+  <si>
+    <t>现在改成搜不到非激活教师</t>
+  </si>
+  <si>
+    <t>需要整理下步骤三到步骤五，导出的排课结果，统计信息，和分析信息。现在基本都是在导出统计信息。</t>
+  </si>
+  <si>
+    <t>已经改了。可以确认下</t>
+  </si>
+  <si>
+    <t>”教师信息管理“-》”教师个人“-》”申报课程“页面右半部分的下班部分标题”教师信息“改成”申报课程“。</t>
+  </si>
+  <si>
+    <t>”教师信息管理“-》”教师个人“-》”排课结果“页面右半部分的下班部分标题”教师信息“改成”排课结果“。</t>
+  </si>
+  <si>
+    <t>info_manage/templates/teacher_manage_apply.html  line 122: 改成：
+当前不在排课当中
+还有其他的”当前不再排课当中“都改掉。</t>
+  </si>
+  <si>
+    <t>”教师信息管理“-》”主管领导“-》”微调审批“页面右半部分的标题”微调申请“改成”微调审批“。</t>
+  </si>
+  <si>
+    <t>如果一门课程原来是非激活课程，我现在想先激活它，然后用微调给它分配一个老师，现在的系统是不可以微调没有授课教师的课程的。需要有这个功能。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">因为非激活的课程激活之后可能是没有原授课老师的，教务员可以选择授课教师提出微调申请，但是在主管老师批准微调申请的时候，系统会因为原授课老师是空，而报错：
+修改失败 错误信息object of type 'int' has no len()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原来是因为final_teacher的list长度问题，现在应该不会有了</t>
+    </r>
+  </si>
+  <si>
+    <t>考虑到现在”添加课程信息“弹窗里有些问题，我们可以暂时把这个按键”disable“掉吗？以后搞好了再捞回来。</t>
   </si>
 </sst>
 </file>
@@ -672,12 +792,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,7 +827,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,16 +869,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,9 +878,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -758,10 +899,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -774,39 +916,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,30 +947,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -859,6 +979,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -876,18 +1002,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -903,7 +1023,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,31 +1089,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,13 +1113,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,13 +1173,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,97 +1191,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,15 +1214,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1136,6 +1247,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1147,26 +1278,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,6 +1301,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1202,148 +1322,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1351,10 +1471,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
@@ -1363,64 +1486,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="49" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1775,7 +1895,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1787,7 +1907,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1798,16 +1918,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="10">
         <v>43874</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="10">
         <v>43886</v>
       </c>
       <c r="G2" t="s">
@@ -1830,10 +1950,10 @@
       <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="10">
         <v>43874</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="10">
         <v>43877</v>
       </c>
       <c r="G3" t="s">
@@ -1848,205 +1968,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1">
-    <tabColor rgb="FF00B0F0"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="75.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="28.5" spans="1:6">
-      <c r="A2" s="1">
-        <v>62</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5">
-        <v>43900</v>
-      </c>
-      <c r="F2" s="5">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="3" ht="42.75" spans="1:7">
-      <c r="A3" s="1">
-        <v>63</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5">
-        <v>43900</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" spans="1:7">
-      <c r="A4" s="1">
-        <v>65</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5">
-        <v>43900</v>
-      </c>
-      <c r="F4" s="5">
-        <v>43900</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" ht="57" spans="1:5">
-      <c r="A5" s="1">
-        <v>66</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="3:4">
-      <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:7">
-      <c r="A7" s="1">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5">
-        <v>43900</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" ht="313.5" spans="1:7">
-      <c r="A8" s="1">
-        <v>71</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5">
-        <v>43900</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G8">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="54.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="54.625" style="16" customWidth="1"/>
     <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
@@ -2060,7 +1995,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2072,31 +2007,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.5" hidden="1" spans="1:7">
+    <row r="2" ht="28.5" spans="1:7">
       <c r="A2">
         <v>35</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>67</v>
+      <c r="C2" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="10">
         <v>43898</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="10">
         <v>43899</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2106,16 +2041,16 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>69</v>
+      <c r="C3" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="10">
         <v>43898</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="10">
         <v>43899</v>
       </c>
     </row>
@@ -2126,20 +2061,20 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="C4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10">
         <v>43898</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="10">
         <v>43899</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>71</v>
+      <c r="G4" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" ht="42.75" spans="1:6">
@@ -2149,336 +2084,335 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10">
+        <v>43898</v>
+      </c>
+      <c r="F5" s="10">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:6">
+      <c r="A6">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43898</v>
+      </c>
+      <c r="F6" s="10">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="7" ht="128.25" spans="1:7">
+      <c r="A7">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="10">
+        <v>43898</v>
+      </c>
+      <c r="F7" s="10">
+        <v>43899</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:5">
+      <c r="A8">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="9" s="19" customFormat="1" ht="141.75" spans="1:7">
+      <c r="A9" s="19">
+        <v>16</v>
+      </c>
+      <c r="B9" s="19">
+        <v>2</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="23">
+        <v>43890</v>
+      </c>
+      <c r="F9" s="23">
+        <v>43892</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" s="19" customFormat="1" ht="71.25" spans="1:7">
+      <c r="A10" s="19">
+        <v>33</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="23">
+        <v>43897</v>
+      </c>
+      <c r="F10" s="23">
+        <v>43899</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" ht="42.75" spans="1:5">
+      <c r="A11">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" spans="1:5">
+      <c r="A12">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10">
+        <v>43898</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G16"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.75" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="42.75" spans="1:6">
+      <c r="A2" s="2">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
+        <v>43898</v>
+      </c>
+      <c r="F2" s="6">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
+        <v>43898</v>
+      </c>
+      <c r="F3" s="6">
+        <v>43900</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" ht="57" spans="1:6">
+      <c r="A4" s="2">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="16">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6">
         <v>43898</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F4" s="6">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:6">
+      <c r="A5" s="2">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43898</v>
+      </c>
+      <c r="F5" s="6">
         <v>43899</v>
       </c>
     </row>
-    <row r="6" ht="28.5" hidden="1" spans="1:6">
-      <c r="A6">
-        <v>39</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="15" t="s">
+    <row r="6" ht="28.5" spans="1:7">
+      <c r="A6" s="2">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="16">
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
         <v>43898</v>
       </c>
-      <c r="F6" s="16">
-        <v>43899</v>
-      </c>
-    </row>
-    <row r="7" ht="42.75" hidden="1" spans="1:6">
-      <c r="A7">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="F6" s="6">
+        <v>43900</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="16">
-        <v>43898</v>
-      </c>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" ht="28.5" spans="1:6">
-      <c r="A8">
-        <v>41</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16">
-        <v>43898</v>
-      </c>
-      <c r="F8" s="16">
-        <v>43899</v>
-      </c>
-    </row>
-    <row r="9" ht="128.25" spans="1:7">
-      <c r="A9">
-        <v>42</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="16">
-        <v>43898</v>
-      </c>
-      <c r="F9" s="16">
-        <v>43899</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" s="11" customFormat="1" ht="141.75" hidden="1" spans="1:7">
-      <c r="A10" s="11">
-        <v>16</v>
-      </c>
-      <c r="B10" s="11">
-        <v>2</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="19">
-        <v>43890</v>
-      </c>
-      <c r="F10" s="19">
-        <v>43892</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" s="12" customFormat="1" ht="71.25" spans="1:7">
-      <c r="A11" s="12">
-        <v>33</v>
-      </c>
-      <c r="B11" s="12">
-        <v>1</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="22">
-        <v>43897</v>
-      </c>
-      <c r="F11" s="22">
-        <v>43899</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" hidden="1" spans="1:5">
-      <c r="A12">
-        <v>43</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="16">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="13" ht="42.75" spans="1:5">
-      <c r="A13">
-        <v>44</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="16">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="14" ht="42.75" hidden="1" spans="1:5">
-      <c r="A14">
-        <v>45</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="16">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="15" ht="42.75" spans="1:5">
-      <c r="A15">
-        <v>46</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="16">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" spans="1:5">
-      <c r="A16">
-        <v>47</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="16">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" hidden="1" spans="1:7">
-      <c r="A17">
-        <v>48</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="16">
-        <v>43898</v>
-      </c>
-      <c r="G17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5" hidden="1" spans="1:7">
-      <c r="A18">
-        <v>49</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="16">
-        <v>43898</v>
-      </c>
-      <c r="G18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" ht="42.75" spans="1:5">
-      <c r="A19">
-        <v>50</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="16">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="20" ht="42.75" spans="1:7">
-      <c r="A20">
-        <v>51</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="16">
-        <v>43898</v>
-      </c>
-      <c r="G20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" ht="57" spans="1:7">
-      <c r="A21">
-        <v>52</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="16">
-        <v>43898</v>
-      </c>
-      <c r="G21" t="s">
-        <v>97</v>
-      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G21">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G6"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2487,217 +2421,156 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="56.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="7" width="75.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="42.75" spans="1:6">
-      <c r="A2" s="1">
-        <v>53</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5">
-        <v>43898</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="1">
-        <v>54</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="5">
-        <v>43898</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>55</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5">
-        <v>43898</v>
-      </c>
-      <c r="F4" s="5">
+    <row r="2" ht="28.5" spans="1:6">
+      <c r="A2" s="2">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
         <v>43900</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" ht="57" spans="1:6">
-      <c r="A5" s="1">
-        <v>56</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5">
-        <v>43898</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="F2" s="6">
         <v>43900</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:6">
-      <c r="A6" s="1">
-        <v>57</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5">
-        <v>43898</v>
-      </c>
-      <c r="F6" s="5">
-        <v>43899</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:7">
-      <c r="A7" s="1">
-        <v>58</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5">
-        <v>43898</v>
-      </c>
-      <c r="F7" s="5">
+    <row r="3" ht="28.5" spans="1:7">
+      <c r="A3" s="2">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
         <v>43900</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5">
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="5:5">
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" s="8" customFormat="1" spans="3:7">
-      <c r="C10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" s="8" customFormat="1" spans="3:7">
-      <c r="C11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="5:5">
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="5:5">
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="5:5">
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="5:5">
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="5"/>
+      <c r="F3" s="6">
+        <v>43900</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" ht="57" spans="1:5">
+      <c r="A4" s="2">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="3:4">
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:7">
+      <c r="A6" s="2">
+        <v>70</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>43900</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" ht="313.5" spans="1:7">
+      <c r="A7" s="2">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6">
+        <v>43900</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7"/>
@@ -2709,362 +2582,1097 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G17"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D9:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="75.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="7" width="75.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.5" hidden="1" spans="1:6">
-      <c r="A2" s="1">
+    <row r="2" ht="28.5" spans="1:6">
+      <c r="A2" s="2">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
+        <v>43901</v>
+      </c>
+      <c r="F2" s="6">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:6">
+      <c r="A3" s="2">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
+        <v>43901</v>
+      </c>
+      <c r="F3" s="6">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:6">
+      <c r="A4" s="2">
+        <v>75</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6">
+        <v>43901</v>
+      </c>
+      <c r="F4" s="6">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:5">
+      <c r="A5" s="2">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:7">
+      <c r="A6" s="2">
+        <v>77</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>43901</v>
+      </c>
+      <c r="F6" s="6">
+        <v>43901</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:6">
+      <c r="A7" s="2">
+        <v>78</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6">
+        <v>43901</v>
+      </c>
+      <c r="F7" s="6">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:6">
+      <c r="A8" s="2">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>43901</v>
+      </c>
+      <c r="F8" s="6">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>81</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43901</v>
+      </c>
+      <c r="F9" s="6">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="10" ht="85.5" spans="1:7">
+      <c r="A10" s="2">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43900</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" ht="199.5" spans="1:7">
+      <c r="A11" s="2">
+        <v>61</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6">
+        <v>43900</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:7">
+      <c r="A12" s="2">
+        <v>68</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6">
+        <v>43900</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:7">
+      <c r="A13" s="2">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6">
+        <v>43900</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G13"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="$A16:$XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="7" width="75.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5" spans="1:6">
+      <c r="A2" s="2">
         <v>72</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="6">
+        <v>43901</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" ht="28.5" spans="1:5">
+      <c r="A3" s="2">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="6">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" customHeight="1" spans="1:5">
+      <c r="A4" s="2">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="5">
-        <v>43901</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="28.5" spans="1:5">
-      <c r="A3" s="1">
-        <v>73</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="6">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="5">
-        <v>43901</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="1">
-        <v>74</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E5" s="6">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A6">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43898</v>
+      </c>
+      <c r="F6" s="10">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="10">
+        <v>43898</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" customFormat="1" ht="42.75" spans="1:5">
+      <c r="A8">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="10">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="28.5" spans="1:7">
+      <c r="A9">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="10">
+        <v>43898</v>
+      </c>
+      <c r="G9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="28.5" spans="1:7">
+      <c r="A10">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="10">
+        <v>43898</v>
+      </c>
+      <c r="G10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="28.5" spans="1:7">
+      <c r="A11">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="10">
+        <v>43898</v>
+      </c>
+      <c r="G11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="42.75" spans="1:7">
+      <c r="A12">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="10">
+        <v>43898</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:6">
+      <c r="A13" s="2">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="6">
+        <v>43898</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" ht="42.75" spans="1:7">
+      <c r="A14" s="2">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="6">
+        <v>43900</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="57" spans="1:7">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="10">
+        <v>43889</v>
+      </c>
+      <c r="G15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" ht="42.75" spans="1:5">
+      <c r="A16" s="2">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="6">
+        <v>43902</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G16"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="7" width="79.625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5">
-        <v>43901</v>
-      </c>
-      <c r="F4" s="5">
-        <v>43901</v>
-      </c>
-    </row>
-    <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="1">
-        <v>75</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E2" s="6">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:6">
+      <c r="A3" s="2">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5">
-        <v>43901</v>
-      </c>
-      <c r="F5" s="5">
-        <v>43901</v>
-      </c>
-    </row>
-    <row r="6" ht="28.5" spans="1:5">
-      <c r="A6" s="1">
-        <v>76</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="5">
-        <v>43901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>77</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E3" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F3" s="6">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="4" ht="71.25" spans="1:7">
+      <c r="A4" s="2">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5">
-        <v>43901</v>
-      </c>
-      <c r="F7" s="5">
-        <v>43901</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>112</v>
+      <c r="E4" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F4" s="6">
+        <v>43902</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" ht="99.75" spans="1:7">
+      <c r="A5" s="2">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F5" s="6">
+        <v>43902</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F6" s="6">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F7" s="6">
+        <v>43902</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:6">
-      <c r="A8" s="1">
-        <v>78</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="2">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5">
-        <v>43901</v>
-      </c>
-      <c r="F8" s="5">
-        <v>43901</v>
-      </c>
-    </row>
-    <row r="9" ht="28.5" spans="1:6">
-      <c r="A9" s="1">
-        <v>79</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E8" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F8" s="6">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="1:7">
+      <c r="A9" s="2">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5">
-        <v>43901</v>
-      </c>
-      <c r="F9" s="5">
-        <v>43901</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" hidden="1" spans="1:5">
-      <c r="A10" s="1">
-        <v>80</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="5">
-        <v>43901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>81</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="E9" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F9" s="6">
+        <v>43902</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:6">
+      <c r="A10" s="2">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="5">
-        <v>43901</v>
-      </c>
-      <c r="F11" s="5">
-        <v>43901</v>
-      </c>
-    </row>
-    <row r="12" ht="85.5" spans="1:7">
-      <c r="A12" s="1">
-        <v>59</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>118</v>
+      <c r="E10" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F10" s="6">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="11" ht="128.25" spans="1:7">
+      <c r="A11" s="2">
+        <v>92</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F11" s="6">
+        <v>43902</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:7">
+      <c r="A12" s="2">
+        <v>93</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5">
-        <v>43900</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" ht="199.5" spans="1:7">
-      <c r="A13" s="1">
-        <v>61</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="5">
-        <v>43900</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" hidden="1" customHeight="1" spans="1:5">
-      <c r="A14" s="1">
-        <v>64</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="5">
-        <v>43900</v>
+      <c r="E12" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F12" s="6">
+        <v>43902</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="28.5" spans="1:7">
+      <c r="A13">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43898</v>
+      </c>
+      <c r="F13" s="6">
+        <v>43902</v>
+      </c>
+      <c r="G13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" ht="42.75" spans="1:7">
+      <c r="A14" s="2">
+        <v>93</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F14" s="6">
+        <v>43902</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:7">
-      <c r="A15" s="1">
-        <v>68</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="5">
-        <v>43900</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" spans="1:7">
-      <c r="A16" s="1">
-        <v>69</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="5">
-        <v>43900</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" hidden="1" spans="1:5">
-      <c r="A17" s="1">
-        <v>67</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="5">
-        <v>43900</v>
+      <c r="A15" s="2">
+        <v>94</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F15" s="6">
+        <v>43902</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:6">
+      <c r="A16" s="2">
+        <v>95</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F16" s="6">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:6">
+      <c r="A17" s="2">
+        <v>96</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F17" s="6">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="18" ht="42.75" spans="1:6">
+      <c r="A18" s="2">
+        <v>97</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F18" s="6">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:6">
+      <c r="A19" s="2">
+        <v>98</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F19" s="6">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="57" spans="1:7">
+      <c r="A20" s="1">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="13">
+        <v>43898</v>
+      </c>
+      <c r="F20" s="6">
+        <v>43902</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:6">
+      <c r="A21" s="2">
+        <v>99</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="6">
+        <v>43902</v>
+      </c>
+      <c r="F21" s="6">
+        <v>43902</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G17">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G21"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3086,7 +3694,7 @@
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="50.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="50.25" style="16" customWidth="1"/>
     <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="54.375" customWidth="1"/>
@@ -3100,7 +3708,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3112,7 +3720,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3123,16 +3731,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="10">
         <v>43882</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="10">
         <v>43886</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -3146,19 +3754,19 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="10">
         <v>43882</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="10">
         <v>43892</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3169,16 +3777,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="10">
         <v>43882</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="10">
         <v>43886</v>
       </c>
       <c r="G4" t="s">
@@ -3192,16 +3800,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="10">
         <v>43882</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="10">
         <v>43886</v>
       </c>
       <c r="G5" t="s">
@@ -3230,7 +3838,7 @@
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="16" customWidth="1"/>
     <col min="4" max="4" width="6.625" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
@@ -3244,7 +3852,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3256,7 +3864,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3267,16 +3875,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="10">
         <v>43888</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="10">
         <v>43892</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -3290,16 +3898,16 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="10">
         <v>43888</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" ht="28.5" spans="1:6">
       <c r="A4">
@@ -3308,16 +3916,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="10">
         <v>43888</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="10">
         <v>43892</v>
       </c>
     </row>
@@ -3328,16 +3936,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="10">
         <v>43888</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="10">
         <v>43892</v>
       </c>
     </row>
@@ -3348,16 +3956,16 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="10">
         <v>43888</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="10">
         <v>43892</v>
       </c>
     </row>
@@ -3383,7 +3991,7 @@
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="16" customWidth="1"/>
     <col min="4" max="4" width="5.625" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
@@ -3397,7 +4005,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3409,7 +4017,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3420,16 +4028,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="10">
         <v>43891</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="10">
         <v>43893</v>
       </c>
       <c r="G2" t="s">
@@ -3443,16 +4051,16 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="10">
         <v>43891</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="10">
         <v>43893</v>
       </c>
     </row>
@@ -3478,7 +4086,7 @@
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="50.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="50.5" style="16" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
@@ -3491,7 +4099,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3503,7 +4111,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3514,16 +4122,16 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="10">
         <v>43896</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="10">
         <v>43898</v>
       </c>
       <c r="G2" t="s">
@@ -3537,55 +4145,55 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="10">
         <v>43896</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="10">
         <v>43898</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="185.25" spans="1:6">
-      <c r="A4" s="12">
+    <row r="4" s="19" customFormat="1" ht="185.25" spans="1:6">
+      <c r="A4" s="19">
         <v>29</v>
       </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="D4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="23">
         <v>43896</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="23">
         <v>43898</v>
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="14"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="14"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="14"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3599,21 +4207,21 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="3" width="49.125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="28.625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3623,7 +4231,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3635,88 +4243,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="42.75" spans="1:6">
+    <row r="2" ht="85.5" spans="1:7">
       <c r="A2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="16">
-        <v>43890</v>
-      </c>
-      <c r="F2" s="16">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="3" ht="28.5" spans="1:6">
-      <c r="A3">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10">
+        <v>43889</v>
+      </c>
+      <c r="F2" s="10">
+        <v>43892</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="16">
-        <v>43870</v>
-      </c>
-      <c r="F3" s="16">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="4" ht="42.75" spans="1:6">
-      <c r="A4">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="16">
-        <v>43890</v>
-      </c>
-      <c r="F4" s="16">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="5" ht="299.25" spans="1:6">
-      <c r="A5">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="16">
-        <v>43890</v>
-      </c>
-      <c r="F5" s="16">
-        <v>43893</v>
       </c>
     </row>
   </sheetData>
@@ -3734,6 +4285,138 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="2.5" customWidth="1"/>
+    <col min="3" max="3" width="49.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="42.75" spans="1:6">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10">
+        <v>43890</v>
+      </c>
+      <c r="F2" s="10">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:6">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10">
+        <v>43870</v>
+      </c>
+      <c r="F3" s="10">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="4" ht="42.75" spans="1:6">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10">
+        <v>43890</v>
+      </c>
+      <c r="F4" s="10">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="5" ht="299.25" spans="1:6">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10">
+        <v>43890</v>
+      </c>
+      <c r="F5" s="10">
+        <v>43893</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
@@ -3741,7 +4424,7 @@
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="50.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="50.5" style="16" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
@@ -3754,7 +4437,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3766,7 +4449,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3777,16 +4460,16 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>36</v>
+      <c r="C2" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="10">
         <v>43897</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="10">
         <v>43898</v>
       </c>
     </row>
@@ -3797,16 +4480,16 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>37</v>
+      <c r="C3" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="10">
         <v>43897</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="10">
         <v>43898</v>
       </c>
     </row>
@@ -3817,16 +4500,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>38</v>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="10">
         <v>43897</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="10">
         <v>43898</v>
       </c>
     </row>
@@ -3837,16 +4520,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>39</v>
+      <c r="C5" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="10">
         <v>43897</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="10">
         <v>43898</v>
       </c>
     </row>
@@ -3857,7 +4540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3872,7 +4555,7 @@
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="16" customWidth="1"/>
     <col min="4" max="4" width="5.625" customWidth="1"/>
     <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="6" max="6" width="32.125" customWidth="1"/>
@@ -3886,7 +4569,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3898,7 +4581,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3909,20 +4592,20 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>40</v>
+      <c r="C2" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="10">
         <v>43894</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="10">
         <v>43895</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
@@ -3932,16 +4615,16 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>42</v>
+      <c r="C3" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="10">
         <v>43894</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="10">
         <v>43895</v>
       </c>
     </row>
@@ -3952,43 +4635,43 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>43</v>
+      <c r="C4" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="10">
         <v>43894</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="10">
         <v>43895</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" s="12" customFormat="1" ht="71.25" spans="1:7">
-      <c r="A5" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" s="19" customFormat="1" ht="71.25" spans="1:7">
+      <c r="A5" s="19">
         <v>24</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="19">
         <v>5</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="C5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="23">
         <v>43894</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="23">
         <v>43895</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>46</v>
+      <c r="G5" s="21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3998,20 +4681,20 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>47</v>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="10">
         <v>43894</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="10">
         <v>43895</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:7">
@@ -4021,112 +4704,17 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="10">
         <v>43894</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="71.25" spans="1:7">
-      <c r="A2">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" s="16">
-        <v>43889</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" ht="85.5" spans="1:7">
-      <c r="A3">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="16">
-        <v>43889</v>
-      </c>
-      <c r="F3" s="16">
-        <v>43892</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/issue-tracking-2020-feb.xlsx
+++ b/issue-tracking-2020-feb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="5" activeTab="14"/>
+    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2-13" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,25 @@
     <sheet name="2020-3-9" sheetId="13" r:id="rId11"/>
     <sheet name="2020-3-10" sheetId="14" r:id="rId12"/>
     <sheet name="2020-3-11" sheetId="15" r:id="rId13"/>
-    <sheet name="2020-3-11 (2)" sheetId="17" r:id="rId14"/>
-    <sheet name="2020-3-12" sheetId="16" r:id="rId15"/>
+    <sheet name="2020-3-12" sheetId="16" r:id="rId14"/>
+    <sheet name="2020-3-11 (2)" sheetId="17" r:id="rId15"/>
+    <sheet name="2020-3-13" sheetId="18" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2020-3-8'!$A$1:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'2020-3-9'!$A$1:$G$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'2020-3-10'!$A$1:$G$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2020-3-11'!$A$1:$G$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'2020-3-11 (2)'!$A$1:$G$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'2020-3-12'!$A$1:$G$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'2020-3-12'!$A$1:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'2020-3-11 (2)'!$A$1:$G$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'2020-3-13'!$A$1:$G$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>序号</t>
   </si>
@@ -584,6 +586,113 @@
 猜想和JM有关。</t>
   </si>
   <si>
+    <t>教师个人撤回申报完成的弹窗，title改成”确认撤销申报完成“</t>
+  </si>
+  <si>
+    <t>”教师信息管理“-》”教师个人“-》”申报课程“页面中，取消申报的弹窗里最下面有个无名框。</t>
+  </si>
+  <si>
+    <t>check_teacher_apply_status中，views.py line 932：
+第一个检查教师人数应该是：
+if teacher_count &lt; teacher_limit_final and teacher_count &gt; teacher_limit_basic&gt;=teacher_limit_basic：
+此处应该是&gt;=teacher_limit_basic</t>
+  </si>
+  <si>
+    <t>要算是等于。</t>
+  </si>
+  <si>
+    <t>步骤三排课结束后”获得排课结果“按钮实际导出的是统计信息。</t>
+  </si>
+  <si>
+    <t>”历史信息“页面上的按钮”排课报表“改名”统计信息“</t>
+  </si>
+  <si>
+    <t>精品课程内容变多了，有校级精品课程，市级精品课程。我们的导入，课程编辑，和各处的加载显示要改变。</t>
+  </si>
+  <si>
+    <t>微调的弹窗里没有平行班级数显示，如果授课人数要求是2*2，系统却无法接受4个老师。</t>
+  </si>
+  <si>
+    <t>原来的代码是会强制检查 = allow_teacher. 我现在改成小于allow_teacher再报错</t>
+  </si>
+  <si>
+    <t>info_manage/static/info_manage/info_manage_leader.js line248:这里是不是应该是“批准微调异常”？</t>
+  </si>
+  <si>
+    <t>“历史信息"的导出排课报表中，重复计算了打通课程的学时，难度和总授课数。</t>
+  </si>
+  <si>
+    <t>改成只算本科</t>
+  </si>
+  <si>
+    <t>”历史信息“导出的排课报表貌似数据有误，我核对了头上三个，每个老师都少算一门课。</t>
+  </si>
+  <si>
+    <t>少一个的问题应该已经解决了啊。本地是对的。</t>
+  </si>
+  <si>
+    <t>微调不可以换非激活的老师上课。（可以让非激活的老师搜索失败）。现在的结果是换非激活的老师上课，会在批准微调的时候报错，但是微调申请仍旧会显示”已批准“，而课程信息和教师信息都不会更新。</t>
+  </si>
+  <si>
+    <t>现在改成搜不到非激活教师</t>
+  </si>
+  <si>
+    <t>需要整理下步骤三到步骤五，导出的排课结果，统计信息，和分析信息。现在基本都是在导出统计信息。</t>
+  </si>
+  <si>
+    <t>已经改了。可以确认下</t>
+  </si>
+  <si>
+    <t>”教师信息管理“-》”教师个人“-》”申报课程“页面右半部分的下班部分标题”教师信息“改成”申报课程“。</t>
+  </si>
+  <si>
+    <t>”教师信息管理“-》”教师个人“-》”排课结果“页面右半部分的下班部分标题”教师信息“改成”排课结果“。</t>
+  </si>
+  <si>
+    <t>info_manage/templates/teacher_manage_apply.html  line 122: 改成：
+当前不在排课当中
+还有其他的”当前不再排课当中“都改掉。</t>
+  </si>
+  <si>
+    <t>”教师信息管理“-》”主管领导“-》”微调审批“页面右半部分的标题”微调申请“改成”微调审批“。</t>
+  </si>
+  <si>
+    <t>如果一门课程原来是非激活课程，我现在想先激活它，然后用微调给它分配一个老师，现在的系统是不可以微调没有授课教师的课程的。需要有这个功能。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">因为非激活的课程激活之后可能是没有原授课老师的，教务员可以选择授课教师提出微调申请，但是在主管老师批准微调申请的时候，系统会因为原授课老师是空，而报错：
+修改失败 错误信息object of type 'int' has no len()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原来是因为final_teacher的list长度问题，现在应该不会有了</t>
+    </r>
+  </si>
+  <si>
+    <t>考虑到现在”添加课程信息“弹窗里有些问题，我们可以暂时把这个按键”disable“掉吗？以后搞好了再捞回来。</t>
+  </si>
+  <si>
+    <t>views.py里面teacher_approve_teacher_adjust function里更新老师的已分配学时和难度是要考虑平行课程的course_hour和course_degree是按照平行班翻倍之后，再根据授课老师人数平分的。Line223要改成:
+course_hour = (search_result[0].course_hour * int(search_result[0].course_parallel)) / (len(final_teacher_list) if final_teacher_list else 1)
+            course_degree = (search_result[0].course_degree * int(search_result[0].course_parallel)) / (len(final_teacher_list if final_teacher_list else 1))</t>
+  </si>
+  <si>
+    <t>可以，我原来是以为course_hour已经是最终的数字。</t>
+  </si>
+  <si>
     <t>“教师信息管理”-》“教务员”-》“申报信息”页面中，列表头“申报完成”改名“申报状态”，内容为空的话显示空，而不是“none“。</t>
   </si>
   <si>
@@ -677,19 +786,25 @@
     <t>对于老师申报课程和撤销申报课程，申报完成和撤销申报完成，教务员老师批准撤销申报完成，日志文件有记录一些数据，但没有清楚的记录这些动作是什么。</t>
   </si>
   <si>
-    <t>教师个人撤回申报完成的弹窗，title改成”确认撤销申报完成“</t>
-  </si>
-  <si>
-    <t>”教师信息管理“-》”教师个人“-》”申报课程“页面中，取消申报的弹窗里最下面有个无名框。</t>
-  </si>
-  <si>
-    <t>check_teacher_apply_status中，views.py line 932：
-第一个检查教师人数应该是：
-if teacher_count &lt; teacher_limit_final and teacher_count &gt; teacher_limit_basic&gt;=teacher_limit_basic：
-此处应该是&gt;=teacher_limit_basic</t>
-  </si>
-  <si>
-    <t>要算是等于。</t>
+    <t>微调不可以微调未激活的课程</t>
+  </si>
+  <si>
+    <t>导入课程没有精品课程信息</t>
+  </si>
+  <si>
+    <t>fix</t>
+  </si>
+  <si>
+    <t>”教师信息管理“-》”教师个人”-》“申报课程”页面中，无法撤销已经申报的打通课程。显示成功，实际刷新后发现没有成功。</t>
+  </si>
+  <si>
+    <t>course_id变成带斜杠之后，search 有问题</t>
+  </si>
+  <si>
+    <t>微调窗口中，原授课教师放到替换成授课教师的位置去了，原授课教师空</t>
+  </si>
+  <si>
+    <t>need review</t>
   </si>
   <si>
     <t>balance_for_high_degree中，在获取all_teachers之后，要额外检查平行班的情况：
@@ -699,92 +814,8 @@
                 all_teachers = int(eachCourse.allow_teachers) *int(eachCourse.course_parallel)</t>
   </si>
   <si>
-    <t>对的。对于排课来说，今年最大的区别就是平行班级的教师数，已经从原来的写在allow_teacher变成要乘平行班级数</t>
-  </si>
-  <si>
-    <t>步骤三排课结束后”获得排课结果“按钮实际导出的是统计信息。</t>
-  </si>
-  <si>
-    <t>”历史信息“页面上的按钮”排课报表“改名”统计信息“</t>
-  </si>
-  <si>
-    <t>精品课程内容变多了，有校级精品课程，市级精品课程。我们的导入，课程编辑，和各处的加载显示要改变。</t>
-  </si>
-  <si>
-    <t>微调的弹窗里没有平行班级数显示，如果授课人数要求是2*2，系统却无法接受4个老师。</t>
-  </si>
-  <si>
-    <t>原来的代码是会强制检查 = allow_teacher. 我现在改成小于allow_teacher再报错</t>
-  </si>
-  <si>
-    <t>info_manage/static/info_manage/info_manage_leader.js line248:这里是不是应该是“批准微调异常”？</t>
-  </si>
-  <si>
-    <t>views.py里面teacher_approve_teacher_adjust function里更新老师的已分配学时和难度是要考虑平行课程的course_hour和course_degree是按照平行班翻倍之后，再根据授课老师人数平分的。Line223要改成:
-course_hour = (search_result[0].course_hour * int(search_result[0].course_parallel)) / (len(final_teacher_list) if final_teacher_list else 1)
-            course_degree = (search_result[0].course_degree * int(search_result[0].course_parallel)) / (len(final_teacher_list if final_teacher_list else 1))</t>
-  </si>
-  <si>
-    <t>可以，我原来是以为course_hour已经是最终的数字。</t>
-  </si>
-  <si>
-    <t>“历史信息"的导出排课报表中，重复计算了打通课程的学时，难度和总授课数。</t>
-  </si>
-  <si>
-    <t>改成只算本科</t>
-  </si>
-  <si>
-    <t>”历史信息“导出的排课报表貌似数据有误，我核对了头上三个，每个老师都少算一门课。</t>
-  </si>
-  <si>
-    <t>少一个的问题应该已经解决了啊。本地是对的。</t>
-  </si>
-  <si>
-    <t>微调不可以换非激活的老师上课。（可以让非激活的老师搜索失败）。现在的结果是换非激活的老师上课，会在批准微调的时候报错，但是微调申请仍旧会显示”已批准“，而课程信息和教师信息都不会更新。</t>
-  </si>
-  <si>
-    <t>现在改成搜不到非激活教师</t>
-  </si>
-  <si>
-    <t>需要整理下步骤三到步骤五，导出的排课结果，统计信息，和分析信息。现在基本都是在导出统计信息。</t>
-  </si>
-  <si>
-    <t>已经改了。可以确认下</t>
-  </si>
-  <si>
-    <t>”教师信息管理“-》”教师个人“-》”申报课程“页面右半部分的下班部分标题”教师信息“改成”申报课程“。</t>
-  </si>
-  <si>
-    <t>”教师信息管理“-》”教师个人“-》”排课结果“页面右半部分的下班部分标题”教师信息“改成”排课结果“。</t>
-  </si>
-  <si>
-    <t>info_manage/templates/teacher_manage_apply.html  line 122: 改成：
-当前不在排课当中
-还有其他的”当前不再排课当中“都改掉。</t>
-  </si>
-  <si>
-    <t>”教师信息管理“-》”主管领导“-》”微调审批“页面右半部分的标题”微调申请“改成”微调审批“。</t>
-  </si>
-  <si>
-    <t>如果一门课程原来是非激活课程，我现在想先激活它，然后用微调给它分配一个老师，现在的系统是不可以微调没有授课教师的课程的。需要有这个功能。</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">因为非激活的课程激活之后可能是没有原授课老师的，教务员可以选择授课教师提出微调申请，但是在主管老师批准微调申请的时候，系统会因为原授课老师是空，而报错：
-修改失败 错误信息object of type 'int' has no len()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原来是因为final_teacher的list长度问题，现在应该不会有了</t>
-    </r>
-  </si>
-  <si>
-    <t>考虑到现在”添加课程信息“弹窗里有些问题，我们可以暂时把这个按键”disable“掉吗？以后搞好了再捞回来。</t>
+    <t>对的。对于排课来说，今年最大的区别就是平行班级的教师数，已经从原来的写在allow_teacher变成要乘平行班级数
+代码没有改进去。</t>
   </si>
 </sst>
 </file>
@@ -792,10 +823,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -827,7 +858,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,16 +887,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -863,29 +918,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,7 +940,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -909,23 +972,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,38 +994,21 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -1002,18 +1032,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1023,7 +1047,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,25 +1149,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,19 +1185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,79 +1209,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,31 +1227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,16 +1242,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1249,11 +1282,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1261,23 +1292,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1299,18 +1330,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,10 +1346,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1334,144 +1358,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
@@ -1495,49 +1516,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1895,7 +1907,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1907,7 +1919,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1918,16 +1930,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9">
         <v>43874</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>43886</v>
       </c>
       <c r="G2" t="s">
@@ -1947,13 +1959,13 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9">
         <v>43874</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>43877</v>
       </c>
       <c r="G3" t="s">
@@ -1981,7 +1993,7 @@
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="54.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="54.625" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
@@ -1995,7 +2007,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2007,7 +2019,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2018,16 +2030,16 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9">
         <v>43898</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>43899</v>
       </c>
       <c r="G2" t="s">
@@ -2041,16 +2053,16 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9">
         <v>43898</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>43899</v>
       </c>
     </row>
@@ -2061,19 +2073,19 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9">
         <v>43898</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>43899</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2084,16 +2096,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9">
         <v>43898</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>43899</v>
       </c>
     </row>
@@ -2104,16 +2116,16 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9">
         <v>43898</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>43899</v>
       </c>
     </row>
@@ -2124,16 +2136,16 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9">
         <v>43898</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>43899</v>
       </c>
       <c r="G7" t="s">
@@ -2147,59 +2159,59 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9">
         <v>43898</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="1" ht="141.75" spans="1:7">
-      <c r="A9" s="19">
+    <row r="9" s="13" customFormat="1" ht="141.75" spans="1:7">
+      <c r="A9" s="13">
         <v>16</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="13">
         <v>2</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="16">
         <v>43890</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="16">
         <v>43892</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" s="19" customFormat="1" ht="71.25" spans="1:7">
-      <c r="A10" s="19">
+    <row r="10" s="13" customFormat="1" ht="71.25" spans="1:7">
+      <c r="A10" s="13">
         <v>33</v>
       </c>
-      <c r="B10" s="19">
-        <v>1</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="16">
         <v>43897</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="16">
         <v>43899</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2210,13 +2222,13 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9">
         <v>43898</v>
       </c>
     </row>
@@ -2227,13 +2239,13 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="9">
         <v>43898</v>
       </c>
     </row>
@@ -2258,158 +2270,158 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.75" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="56.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="42.75" spans="1:6">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>53</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
         <v>43898</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>43899</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>55</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
         <v>43898</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>43900</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" ht="57" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>56</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
         <v>43898</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>43900</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>57</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5">
         <v>43898</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>43899</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>58</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
         <v>43898</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>43900</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="5:5">
-      <c r="E7" s="6"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="5:5">
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="5:5">
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="5:5">
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6"/>
@@ -2432,143 +2444,143 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="75.5" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="75.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:6">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>62</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
         <v>43900</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>43900</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>65</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
         <v>43900</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>43900</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" ht="57" spans="1:5">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>66</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
         <v>43900</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="3:4">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>70</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
         <v>43900</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" ht="313.5" spans="1:7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>71</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
         <v>43900</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2587,282 +2599,282 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D13" sqref="D9:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="75.5" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="75.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:6">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>73</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
         <v>43901</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>43901</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>74</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
         <v>43901</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>43901</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>75</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
         <v>43901</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>43901</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>76</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5">
         <v>43901</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>77</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
         <v>43901</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>43901</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:6">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>78</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
         <v>43901</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>43901</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:6">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>79</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5">
         <v>43901</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>43901</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>81</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
         <v>43901</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>43901</v>
       </c>
     </row>
     <row r="10" ht="85.5" spans="1:7">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>59</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
         <v>43900</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" ht="199.5" spans="1:7">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>61</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5">
         <v>43900</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>68</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5">
         <v>43900</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:7">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>69</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
         <v>43900</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2876,328 +2888,452 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="59.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="75.5" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="79.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:6">
-      <c r="A2" s="2">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:6">
+      <c r="A3" s="1">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="6">
-        <v>43901</v>
-      </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" ht="28.5" spans="1:5">
-      <c r="A3" s="2">
-        <v>80</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43902</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="4" ht="71.25" spans="1:7">
+      <c r="A4" s="1">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43902</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43902</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="6">
-        <v>43901</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" customHeight="1" spans="1:5">
-      <c r="A4" s="2">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>87</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="6">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>67</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43902</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43902</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:6">
+      <c r="A7" s="1">
+        <v>89</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="6">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A6">
-        <v>39</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43902</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:7">
+      <c r="A8" s="1">
+        <v>90</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="10">
-        <v>43898</v>
-      </c>
-      <c r="F6" s="10">
-        <v>43899</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A7">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43902</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43902</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="10">
-        <v>43898</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" customFormat="1" ht="42.75" spans="1:5">
-      <c r="A8">
-        <v>45</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
+    </row>
+    <row r="9" ht="28.5" spans="1:6">
+      <c r="A9" s="1">
+        <v>91</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="10">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="28.5" spans="1:7">
-      <c r="A9">
-        <v>48</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43902</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:7">
+      <c r="A10" s="1">
+        <v>93</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="10">
-        <v>43898</v>
-      </c>
-      <c r="G9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="28.5" spans="1:7">
-      <c r="A10">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="10">
-        <v>43898</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43902</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43902</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="28.5" spans="1:7">
       <c r="A11">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9">
+        <v>43898</v>
+      </c>
+      <c r="F11" s="5">
+        <v>43902</v>
+      </c>
+      <c r="G11" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="15" t="s">
+    </row>
+    <row r="12" ht="42.75" spans="1:7">
+      <c r="A12" s="1">
+        <v>93</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="10">
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5">
+        <v>43902</v>
+      </c>
+      <c r="F12" s="5">
+        <v>43902</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:7">
+      <c r="A13" s="1">
+        <v>94</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>43902</v>
+      </c>
+      <c r="F13" s="5">
+        <v>43902</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:6">
+      <c r="A14" s="1">
+        <v>95</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>43902</v>
+      </c>
+      <c r="F14" s="5">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:6">
+      <c r="A15" s="1">
+        <v>96</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5">
+        <v>43902</v>
+      </c>
+      <c r="F15" s="5">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="16" ht="42.75" spans="1:6">
+      <c r="A16" s="1">
+        <v>97</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5">
+        <v>43902</v>
+      </c>
+      <c r="F16" s="5">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:6">
+      <c r="A17" s="1">
+        <v>98</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5">
+        <v>43902</v>
+      </c>
+      <c r="F17" s="5">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="18" s="13" customFormat="1" ht="57" spans="1:7">
+      <c r="A18" s="13">
+        <v>50</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="16">
         <v>43898</v>
       </c>
-      <c r="G11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="42.75" spans="1:7">
-      <c r="A12">
-        <v>52</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="10">
-        <v>43898</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:6">
-      <c r="A13" s="2">
-        <v>54</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="6">
-        <v>43898</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" ht="42.75" spans="1:7">
-      <c r="A14" s="2">
-        <v>63</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="6">
-        <v>43900</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" ht="57" spans="1:7">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="10">
-        <v>43889</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F18" s="17">
+        <v>43902</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" ht="42.75" spans="1:5">
-      <c r="A16" s="2">
-        <v>83</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4" t="s">
+    <row r="19" ht="28.5" spans="1:6">
+      <c r="A19" s="1">
+        <v>99</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5">
         <v>43902</v>
       </c>
+      <c r="F19" s="5">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="20" ht="128.25" spans="1:7">
+      <c r="A20" s="1">
+        <v>92</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5">
+        <v>43902</v>
+      </c>
+      <c r="F20" s="5">
+        <v>43902</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16"/>
+  <autoFilter ref="A1:G20"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3207,472 +3343,478 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="79.625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="75.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    <row r="2" ht="28.5" spans="1:6">
+      <c r="A2" s="1">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43901</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" ht="28.5" spans="1:5">
+      <c r="A3" s="1">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" customHeight="1" spans="1:5">
+      <c r="A4" s="1">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A6">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="9">
+        <v>43898</v>
+      </c>
+      <c r="F6" s="9">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="9">
+        <v>43898</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" customFormat="1" ht="42.75" spans="1:5">
+      <c r="A8">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="9">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="28.5" spans="1:7">
+      <c r="A9">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="9">
+        <v>43898</v>
+      </c>
+      <c r="G9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="28.5" spans="1:7">
+      <c r="A10">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="9">
+        <v>43898</v>
+      </c>
+      <c r="G10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="28.5" spans="1:7">
+      <c r="A11">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="9">
+        <v>43898</v>
+      </c>
+      <c r="G11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="42.75" spans="1:7">
+      <c r="A12">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="9">
+        <v>43898</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:6">
+      <c r="A13" s="1">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="5">
+        <v>43898</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" ht="42.75" spans="1:7">
+      <c r="A14" s="1">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="5">
+        <v>43900</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="57" spans="1:7">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="9">
+        <v>43889</v>
+      </c>
+      <c r="G15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" ht="42.75" spans="1:5">
+      <c r="A16" s="1">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="5">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>103</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="5">
+        <v>43903</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G17"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="79.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
+        <v>43903</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:7">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43903</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43903</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" ht="99.75" spans="1:7">
+      <c r="A5" s="1">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="5">
         <v>43902</v>
       </c>
-    </row>
-    <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="2">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="F5" s="5">
         <v>43902</v>
       </c>
-      <c r="F3" s="6">
-        <v>43902</v>
-      </c>
-    </row>
-    <row r="4" ht="71.25" spans="1:7">
-      <c r="A4" s="2">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F4" s="6">
-        <v>43902</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" ht="99.75" spans="1:7">
-      <c r="A5" s="2">
-        <v>86</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F5" s="6">
-        <v>43902</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>87</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F6" s="6">
-        <v>43902</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>88</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F7" s="6">
-        <v>43902</v>
-      </c>
-    </row>
-    <row r="8" ht="28.5" spans="1:6">
-      <c r="A8" s="2">
-        <v>89</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F8" s="6">
-        <v>43902</v>
-      </c>
-    </row>
-    <row r="9" ht="28.5" spans="1:7">
-      <c r="A9" s="2">
-        <v>90</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F9" s="6">
-        <v>43902</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="2">
-        <v>91</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F10" s="6">
-        <v>43902</v>
-      </c>
-    </row>
-    <row r="11" ht="128.25" spans="1:7">
-      <c r="A11" s="2">
-        <v>92</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F11" s="6">
-        <v>43902</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:7">
-      <c r="A12" s="2">
-        <v>93</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F12" s="6">
-        <v>43902</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="28.5" spans="1:7">
-      <c r="A13">
-        <v>47</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="10">
-        <v>43898</v>
-      </c>
-      <c r="F13" s="6">
-        <v>43902</v>
-      </c>
-      <c r="G13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" ht="42.75" spans="1:7">
-      <c r="A14" s="2">
-        <v>93</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F14" s="6">
-        <v>43902</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" ht="28.5" spans="1:7">
-      <c r="A15" s="2">
-        <v>94</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F15" s="6">
-        <v>43902</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" spans="1:6">
-      <c r="A16" s="2">
-        <v>95</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F16" s="6">
-        <v>43902</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:6">
-      <c r="A17" s="2">
-        <v>96</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F17" s="6">
-        <v>43902</v>
-      </c>
-    </row>
-    <row r="18" ht="42.75" spans="1:6">
-      <c r="A18" s="2">
-        <v>97</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F18" s="6">
-        <v>43902</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" spans="1:6">
-      <c r="A19" s="2">
-        <v>98</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F19" s="6">
-        <v>43902</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="57" spans="1:7">
-      <c r="A20" s="1">
-        <v>50</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13">
-        <v>43898</v>
-      </c>
-      <c r="F20" s="6">
-        <v>43902</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" ht="28.5" spans="1:6">
-      <c r="A21" s="2">
-        <v>99</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="6">
-        <v>43902</v>
-      </c>
-      <c r="F21" s="6">
-        <v>43902</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G21"/>
+  <autoFilter ref="A1:G6"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3694,7 +3836,7 @@
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="50.25" style="16" customWidth="1"/>
+    <col min="3" max="3" width="50.25" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.375" customWidth="1"/>
     <col min="5" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="54.375" customWidth="1"/>
@@ -3708,7 +3850,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3720,7 +3862,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3731,19 +3873,19 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9">
         <v>43882</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>43886</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3754,19 +3896,19 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9">
         <v>43882</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>43892</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3777,16 +3919,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9">
         <v>43882</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>43886</v>
       </c>
       <c r="G4" t="s">
@@ -3800,16 +3942,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9">
         <v>43882</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>43886</v>
       </c>
       <c r="G5" t="s">
@@ -3838,7 +3980,7 @@
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="10" customWidth="1"/>
     <col min="4" max="4" width="6.625" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
@@ -3852,7 +3994,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3864,7 +4006,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3875,19 +4017,19 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9">
         <v>43888</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>43892</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3898,16 +4040,16 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>43888</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" ht="28.5" spans="1:6">
       <c r="A4">
@@ -3916,16 +4058,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9">
         <v>43888</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>43892</v>
       </c>
     </row>
@@ -3936,16 +4078,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9">
         <v>43888</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>43892</v>
       </c>
     </row>
@@ -3956,16 +4098,16 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9">
         <v>43888</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>43892</v>
       </c>
     </row>
@@ -3991,7 +4133,7 @@
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="10" customWidth="1"/>
     <col min="4" max="4" width="5.625" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
@@ -4005,7 +4147,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -4017,7 +4159,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4028,16 +4170,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9">
         <v>43891</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>43893</v>
       </c>
       <c r="G2" t="s">
@@ -4051,16 +4193,16 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9">
         <v>43891</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>43893</v>
       </c>
     </row>
@@ -4086,7 +4228,7 @@
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="50.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="50.5" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
@@ -4099,7 +4241,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -4111,7 +4253,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4122,16 +4264,16 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9">
         <v>43896</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>43898</v>
       </c>
       <c r="G2" t="s">
@@ -4145,55 +4287,55 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9">
         <v>43896</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>43898</v>
       </c>
     </row>
-    <row r="4" s="19" customFormat="1" ht="185.25" spans="1:6">
-      <c r="A4" s="19">
+    <row r="4" s="13" customFormat="1" ht="185.25" spans="1:6">
+      <c r="A4" s="13">
         <v>29</v>
       </c>
-      <c r="B4" s="19">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="D4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16">
         <v>43896</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="16">
         <v>43898</v>
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="8"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="8"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="8"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4217,7 +4359,7 @@
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="10" customWidth="1"/>
     <col min="4" max="4" width="5.625" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
@@ -4231,7 +4373,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -4243,7 +4385,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4254,19 +4396,19 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>43889</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>43892</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4292,7 +4434,7 @@
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="3" width="49.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="49.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
@@ -4306,7 +4448,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -4318,7 +4460,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4329,16 +4471,16 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9">
         <v>43890</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>43893</v>
       </c>
     </row>
@@ -4349,16 +4491,16 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9">
         <v>43870</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>43892</v>
       </c>
     </row>
@@ -4369,16 +4511,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9">
         <v>43890</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>43893</v>
       </c>
     </row>
@@ -4389,16 +4531,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9">
         <v>43890</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>43893</v>
       </c>
     </row>
@@ -4424,7 +4566,7 @@
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="50.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="50.5" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
@@ -4437,7 +4579,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -4449,7 +4591,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4460,16 +4602,16 @@
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9">
         <v>43897</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>43898</v>
       </c>
     </row>
@@ -4480,16 +4622,16 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9">
         <v>43897</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>43898</v>
       </c>
     </row>
@@ -4500,16 +4642,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9">
         <v>43897</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>43898</v>
       </c>
     </row>
@@ -4520,16 +4662,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9">
         <v>43897</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>43898</v>
       </c>
     </row>
@@ -4555,7 +4697,7 @@
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="10" customWidth="1"/>
     <col min="4" max="4" width="5.625" customWidth="1"/>
     <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="6" max="6" width="32.125" customWidth="1"/>
@@ -4569,7 +4711,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -4581,7 +4723,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4592,16 +4734,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9">
         <v>43894</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>43895</v>
       </c>
       <c r="G2" t="s">
@@ -4615,16 +4757,16 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9">
         <v>43894</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>43895</v>
       </c>
     </row>
@@ -4635,42 +4777,42 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9">
         <v>43894</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>43895</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" s="19" customFormat="1" ht="71.25" spans="1:7">
-      <c r="A5" s="19">
+    <row r="5" s="13" customFormat="1" ht="71.25" spans="1:7">
+      <c r="A5" s="13">
         <v>24</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="13">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="D5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16">
         <v>43894</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="16">
         <v>43895</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4681,16 +4823,16 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9">
         <v>43894</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>43895</v>
       </c>
       <c r="G6" t="s">
@@ -4704,13 +4846,13 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>43894</v>
       </c>
       <c r="G7" t="s">

--- a/issue-tracking-2020-feb.xlsx
+++ b/issue-tracking-2020-feb.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
   <si>
     <t>序号</t>
   </si>
@@ -802,9 +802,6 @@
   </si>
   <si>
     <t>微调窗口中，原授课教师放到替换成授课教师的位置去了，原授课教师空</t>
-  </si>
-  <si>
-    <t>need review</t>
   </si>
   <si>
     <t>balance_for_high_degree中，在获取all_teachers之后，要额外检查平行班的情况：
@@ -3694,7 +3691,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -3783,7 +3780,7 @@
         <v>159</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5">
         <v>43903</v>
@@ -3798,10 +3795,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5">
         <v>43902</v>
@@ -3810,7 +3807,7 @@
         <v>43902</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
